--- a/Excel Carros Informações Versão Atualizada.xlsx
+++ b/Excel Carros Informações Versão Atualizada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ipbejapt-my.sharepoint.com/personal/23919_stu_ipbeja_pt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marti\Documents\SI\TG1\SI-TG1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{9518B53B-B95E-491D-8120-49B2E10E8827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D440735-A484-7A4C-BCB8-03296427D2FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82BB51-2AD6-4548-9853-FD0F8396CCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7BD9BC15-55B9-47D1-AC59-4301D45DE72F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7BD9BC15-55B9-47D1-AC59-4301D45DE72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Automobile" sheetId="4" r:id="rId1"/>
@@ -2056,7 +2056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2065,7 +2065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2099,7 +2098,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2555,7 +2554,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3011,7 +3010,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3470,7 +3469,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3486,6 +3485,31 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Média de Cilindrada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3896,7 +3920,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3912,6 +3936,36 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Produção Total Por Região</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>/País e Por Ano </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13554,7 +13608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13872,26 +13926,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9012A2-EF33-4757-9748-3DA9B16A8308}">
   <dimension ref="A1:K393"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M145" sqref="M145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.66796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73828125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.67578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13926,7 +13980,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -13954,14 +14008,14 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>322</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -13989,14 +14043,14 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -14024,14 +14078,14 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" t="s">
         <v>326</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -14059,14 +14113,14 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" t="s">
         <v>328</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -14094,14 +14148,14 @@
       <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>330</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -14129,14 +14183,14 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s">
         <v>330</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -14164,14 +14218,14 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" t="s">
         <v>322</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -14199,14 +14253,14 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" t="s">
         <v>326</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -14234,14 +14288,14 @@
       <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" t="s">
         <v>335</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -14269,14 +14323,14 @@
       <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" t="s">
         <v>328</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -14304,14 +14358,14 @@
       <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" t="s">
         <v>338</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -14339,14 +14393,14 @@
       <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" t="s">
         <v>326</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -14374,14 +14428,14 @@
       <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" t="s">
         <v>322</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -14409,14 +14463,14 @@
       <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -14444,14 +14498,14 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" t="s">
         <v>343</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -14479,14 +14533,14 @@
       <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" t="s">
         <v>326</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -14514,14 +14568,14 @@
       <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" t="s">
         <v>328</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14549,14 +14603,14 @@
       <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -14584,14 +14638,14 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" t="s">
         <v>348</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -14619,14 +14673,14 @@
       <c r="I21" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" t="s">
         <v>350</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -14654,14 +14708,14 @@
       <c r="I22" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" t="s">
         <v>352</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -14689,14 +14743,14 @@
       <c r="I23" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" t="s">
         <v>354</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -14724,14 +14778,14 @@
       <c r="I24" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" t="s">
         <v>356</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -14759,14 +14813,14 @@
       <c r="I25" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" t="s">
         <v>358</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -14794,14 +14848,14 @@
       <c r="I26" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" t="s">
         <v>328</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -14829,14 +14883,14 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" t="s">
         <v>330</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -14864,14 +14918,14 @@
       <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" t="s">
         <v>362</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -14899,14 +14953,14 @@
       <c r="I29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" t="s">
         <v>338</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -14934,14 +14988,14 @@
       <c r="I30" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" t="s">
         <v>365</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -14969,14 +15023,14 @@
       <c r="I31" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" t="s">
         <v>348</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -15004,14 +15058,14 @@
       <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" t="s">
         <v>322</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -15039,14 +15093,14 @@
       <c r="I33" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" t="s">
         <v>343</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -15074,14 +15128,14 @@
       <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" t="s">
         <v>328</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -15109,14 +15163,14 @@
       <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" t="s">
         <v>326</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -15144,14 +15198,14 @@
       <c r="I36" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" t="s">
         <v>322</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -15179,14 +15233,14 @@
       <c r="I37" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" t="s">
         <v>330</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -15214,14 +15268,14 @@
       <c r="I38" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" t="s">
         <v>328</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -15249,14 +15303,14 @@
       <c r="I39" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" t="s">
         <v>322</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -15284,14 +15338,14 @@
       <c r="I40" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" t="s">
         <v>335</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -15319,14 +15373,14 @@
       <c r="I41" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" t="s">
         <v>330</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -15354,14 +15408,14 @@
       <c r="I42" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" t="s">
         <v>326</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -15389,14 +15443,14 @@
       <c r="I43" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" t="s">
         <v>338</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -15424,14 +15478,14 @@
       <c r="I44" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" t="s">
         <v>330</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -15459,14 +15513,14 @@
       <c r="I45" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" t="s">
         <v>335</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -15494,14 +15548,14 @@
       <c r="I46" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" t="s">
         <v>328</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -15529,14 +15583,14 @@
       <c r="I47" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" t="s">
         <v>322</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -15564,14 +15618,14 @@
       <c r="I48" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" t="s">
         <v>335</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -15599,14 +15653,14 @@
       <c r="I49" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" t="s">
         <v>330</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -15634,14 +15688,14 @@
       <c r="I50" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" t="s">
         <v>380</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -15669,14 +15723,14 @@
       <c r="I51" t="s">
         <v>31</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" t="s">
         <v>382</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -15704,14 +15758,14 @@
       <c r="I52" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" t="s">
         <v>352</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -15739,14 +15793,14 @@
       <c r="I53" t="s">
         <v>31</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" t="s">
         <v>385</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -15774,14 +15828,14 @@
       <c r="I54" t="s">
         <v>25</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" t="s">
         <v>343</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -15809,14 +15863,14 @@
       <c r="I55" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" t="s">
         <v>348</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -15844,14 +15898,14 @@
       <c r="I56" t="s">
         <v>31</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" t="s">
         <v>350</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -15879,14 +15933,14 @@
       <c r="I57" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" t="s">
         <v>326</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -15914,14 +15968,14 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" t="s">
         <v>343</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -15949,14 +16003,14 @@
       <c r="I59" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" t="s">
         <v>338</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -15984,14 +16038,14 @@
       <c r="I60" t="s">
         <v>31</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" t="s">
         <v>350</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -16019,14 +16073,14 @@
       <c r="I61" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" t="s">
         <v>322</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -16054,14 +16108,14 @@
       <c r="I62" t="s">
         <v>10</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" t="s">
         <v>330</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -16089,14 +16143,14 @@
       <c r="I63" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" t="s">
         <v>322</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -16124,14 +16178,14 @@
       <c r="I64" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" t="s">
         <v>335</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -16159,14 +16213,14 @@
       <c r="I65" t="s">
         <v>10</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" t="s">
         <v>326</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -16194,14 +16248,14 @@
       <c r="I66" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" t="s">
         <v>330</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -16229,14 +16283,14 @@
       <c r="I67" t="s">
         <v>10</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" t="s">
         <v>328</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -16264,14 +16318,14 @@
       <c r="I68" t="s">
         <v>10</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" t="s">
         <v>380</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -16299,14 +16353,14 @@
       <c r="I69" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" t="s">
         <v>324</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -16334,14 +16388,14 @@
       <c r="I70" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" t="s">
         <v>399</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -16369,14 +16423,14 @@
       <c r="I71" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" t="s">
         <v>401</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -16404,14 +16458,14 @@
       <c r="I72" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" t="s">
         <v>403</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -16439,14 +16493,14 @@
       <c r="I73" t="s">
         <v>10</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" t="s">
         <v>328</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -16474,14 +16528,14 @@
       <c r="I74" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" t="s">
         <v>322</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -16509,14 +16563,14 @@
       <c r="I75" t="s">
         <v>10</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" t="s">
         <v>330</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="K75" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -16544,14 +16598,14 @@
       <c r="I76" t="s">
         <v>10</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" t="s">
         <v>326</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -16579,14 +16633,14 @@
       <c r="I77" t="s">
         <v>31</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" t="s">
         <v>409</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -16614,14 +16668,14 @@
       <c r="I78" t="s">
         <v>31</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" t="s">
         <v>350</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -16649,14 +16703,14 @@
       <c r="I79" t="s">
         <v>31</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" t="s">
         <v>352</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -16684,14 +16738,14 @@
       <c r="I80" t="s">
         <v>31</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" t="s">
         <v>413</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -16719,14 +16773,14 @@
       <c r="I81" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" t="s">
         <v>330</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -16754,14 +16808,14 @@
       <c r="I82" t="s">
         <v>25</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" t="s">
         <v>348</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -16789,14 +16843,14 @@
       <c r="I83" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J83" t="s">
         <v>417</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -16824,14 +16878,14 @@
       <c r="I84" t="s">
         <v>10</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" t="s">
         <v>338</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -16859,14 +16913,14 @@
       <c r="I85" t="s">
         <v>25</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" t="s">
         <v>343</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -16894,14 +16948,14 @@
       <c r="I86" t="s">
         <v>10</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J86" t="s">
         <v>324</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -16929,14 +16983,14 @@
       <c r="I87" t="s">
         <v>10</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" t="s">
         <v>328</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -16964,14 +17018,14 @@
       <c r="I88" t="s">
         <v>10</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" t="s">
         <v>322</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="K88" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -16999,14 +17053,14 @@
       <c r="I89" t="s">
         <v>10</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J89" t="s">
         <v>330</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K89" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -17034,14 +17088,14 @@
       <c r="I90" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="J90" t="s">
         <v>338</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="K90" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -17069,14 +17123,14 @@
       <c r="I91" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" t="s">
         <v>380</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -17104,14 +17158,14 @@
       <c r="I92" t="s">
         <v>10</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J92" t="s">
         <v>322</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -17139,14 +17193,14 @@
       <c r="I93" t="s">
         <v>10</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" t="s">
         <v>330</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -17174,14 +17228,14 @@
       <c r="I94" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J94" t="s">
         <v>326</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -17209,14 +17263,14 @@
       <c r="I95" t="s">
         <v>10</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" t="s">
         <v>401</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="K95" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -17244,14 +17298,14 @@
       <c r="I96" t="s">
         <v>10</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" t="s">
         <v>324</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -17279,14 +17333,14 @@
       <c r="I97" t="s">
         <v>10</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" t="s">
         <v>328</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -17314,14 +17368,14 @@
       <c r="I98" t="s">
         <v>10</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J98" t="s">
         <v>326</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K98" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -17349,14 +17403,14 @@
       <c r="I99" t="s">
         <v>10</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="J99" t="s">
         <v>322</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="K99" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -17384,14 +17438,14 @@
       <c r="I100" t="s">
         <v>10</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" t="s">
         <v>328</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -17419,14 +17473,14 @@
       <c r="I101" t="s">
         <v>10</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="J101" t="s">
         <v>330</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K101" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -17454,14 +17508,14 @@
       <c r="I102" t="s">
         <v>10</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" t="s">
         <v>326</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -17489,14 +17543,14 @@
       <c r="I103" t="s">
         <v>31</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="J103" t="s">
         <v>350</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -17524,14 +17578,14 @@
       <c r="I104" t="s">
         <v>10</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="J104" t="s">
         <v>322</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="K104" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -17559,14 +17613,14 @@
       <c r="I105" t="s">
         <v>10</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J105" t="s">
         <v>330</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K105" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -17594,14 +17648,14 @@
       <c r="I106" t="s">
         <v>10</v>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J106" t="s">
         <v>326</v>
       </c>
-      <c r="K106" s="4" t="s">
+      <c r="K106" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -17629,14 +17683,14 @@
       <c r="I107" t="s">
         <v>10</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J107" t="s">
         <v>399</v>
       </c>
-      <c r="K107" s="4" t="s">
+      <c r="K107" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -17664,14 +17718,14 @@
       <c r="I108" t="s">
         <v>10</v>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" t="s">
         <v>328</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -17699,14 +17753,14 @@
       <c r="I109" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J109" t="s">
         <v>343</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K109" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>65</v>
       </c>
@@ -17734,14 +17788,14 @@
       <c r="I110" t="s">
         <v>10</v>
       </c>
-      <c r="J110" s="4" t="s">
+      <c r="J110" t="s">
         <v>322</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="K110" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -17769,14 +17823,14 @@
       <c r="I111" t="s">
         <v>25</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J111" t="s">
         <v>348</v>
       </c>
-      <c r="K111" s="4" t="s">
+      <c r="K111" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -17804,14 +17858,14 @@
       <c r="I112" t="s">
         <v>25</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="J112" t="s">
         <v>440</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="K112" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -17839,14 +17893,14 @@
       <c r="I113" t="s">
         <v>10</v>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="J113" t="s">
         <v>330</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="K113" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -17874,14 +17928,14 @@
       <c r="I114" t="s">
         <v>10</v>
       </c>
-      <c r="J114" s="4" t="s">
+      <c r="J114" t="s">
         <v>380</v>
       </c>
-      <c r="K114" s="4" t="s">
+      <c r="K114" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -17909,14 +17963,14 @@
       <c r="I115" t="s">
         <v>31</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="J115" t="s">
         <v>385</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K115" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -17944,14 +17998,14 @@
       <c r="I116" t="s">
         <v>10</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" t="s">
         <v>322</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -17979,14 +18033,14 @@
       <c r="I117" t="s">
         <v>10</v>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="J117" t="s">
         <v>335</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>111</v>
       </c>
@@ -18014,14 +18068,14 @@
       <c r="I118" t="s">
         <v>31</v>
       </c>
-      <c r="J118" s="4" t="s">
+      <c r="J118" t="s">
         <v>385</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="K118" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -18049,14 +18103,14 @@
       <c r="I119" t="s">
         <v>31</v>
       </c>
-      <c r="J119" s="4" t="s">
+      <c r="J119" t="s">
         <v>382</v>
       </c>
-      <c r="K119" s="4" t="s">
+      <c r="K119" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>113</v>
       </c>
@@ -18084,14 +18138,14 @@
       <c r="I120" t="s">
         <v>31</v>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J120" t="s">
         <v>354</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -18119,14 +18173,14 @@
       <c r="I121" t="s">
         <v>31</v>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="J121" t="s">
         <v>409</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="K121" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>115</v>
       </c>
@@ -18154,14 +18208,14 @@
       <c r="I122" t="s">
         <v>10</v>
       </c>
-      <c r="J122" s="4" t="s">
+      <c r="J122" t="s">
         <v>338</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="K122" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>116</v>
       </c>
@@ -18189,14 +18243,14 @@
       <c r="I123" t="s">
         <v>31</v>
       </c>
-      <c r="J123" s="4" t="s">
+      <c r="J123" t="s">
         <v>356</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="K123" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>117</v>
       </c>
@@ -18224,14 +18278,14 @@
       <c r="I124" t="s">
         <v>25</v>
       </c>
-      <c r="J124" s="4" t="s">
+      <c r="J124" t="s">
         <v>343</v>
       </c>
-      <c r="K124" s="4" t="s">
+      <c r="K124" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -18259,14 +18313,14 @@
       <c r="I125" t="s">
         <v>10</v>
       </c>
-      <c r="J125" s="4" t="s">
+      <c r="J125" t="s">
         <v>399</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -18294,14 +18348,14 @@
       <c r="I126" t="s">
         <v>10</v>
       </c>
-      <c r="J126" s="4" t="s">
+      <c r="J126" t="s">
         <v>326</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="K126" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -18329,14 +18383,14 @@
       <c r="I127" t="s">
         <v>10</v>
       </c>
-      <c r="J127" s="4" t="s">
+      <c r="J127" t="s">
         <v>328</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="K127" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -18364,14 +18418,14 @@
       <c r="I128" t="s">
         <v>10</v>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J128" t="s">
         <v>322</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>120</v>
       </c>
@@ -18399,14 +18453,14 @@
       <c r="I129" t="s">
         <v>25</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="J129" t="s">
         <v>348</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="K129" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>106</v>
       </c>
@@ -18434,14 +18488,14 @@
       <c r="I130" t="s">
         <v>10</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J130" t="s">
         <v>330</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K130" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -18469,14 +18523,14 @@
       <c r="I131" t="s">
         <v>25</v>
       </c>
-      <c r="J131" s="4" t="s">
+      <c r="J131" t="s">
         <v>343</v>
       </c>
-      <c r="K131" s="4" t="s">
+      <c r="K131" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -18504,14 +18558,14 @@
       <c r="I132" t="s">
         <v>10</v>
       </c>
-      <c r="J132" s="4" t="s">
+      <c r="J132" t="s">
         <v>322</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K132" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -18539,14 +18593,14 @@
       <c r="I133" t="s">
         <v>10</v>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J133" t="s">
         <v>322</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -18574,14 +18628,14 @@
       <c r="I134" t="s">
         <v>10</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="J134" t="s">
         <v>328</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="K134" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>122</v>
       </c>
@@ -18609,14 +18663,14 @@
       <c r="I135" t="s">
         <v>10</v>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="J135" t="s">
         <v>326</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K135" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -18644,14 +18698,14 @@
       <c r="I136" t="s">
         <v>10</v>
       </c>
-      <c r="J136" s="4" t="s">
+      <c r="J136" t="s">
         <v>330</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -18679,14 +18733,14 @@
       <c r="I137" t="s">
         <v>10</v>
       </c>
-      <c r="J137" s="4" t="s">
+      <c r="J137" t="s">
         <v>324</v>
       </c>
-      <c r="K137" s="4" t="s">
+      <c r="K137" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -18714,14 +18768,14 @@
       <c r="I138" t="s">
         <v>10</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J138" t="s">
         <v>338</v>
       </c>
-      <c r="K138" s="4" t="s">
+      <c r="K138" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>75</v>
       </c>
@@ -18749,14 +18803,14 @@
       <c r="I139" t="s">
         <v>10</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J139" t="s">
         <v>330</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K139" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>73</v>
       </c>
@@ -18784,14 +18838,14 @@
       <c r="I140" t="s">
         <v>10</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" t="s">
         <v>328</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>125</v>
       </c>
@@ -18819,14 +18873,14 @@
       <c r="I141" t="s">
         <v>31</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J141" t="s">
         <v>354</v>
       </c>
-      <c r="K141" s="4" t="s">
+      <c r="K141" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -18854,14 +18908,14 @@
       <c r="I142" t="s">
         <v>31</v>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J142" t="s">
         <v>350</v>
       </c>
-      <c r="K142" s="4" t="s">
+      <c r="K142" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -18889,14 +18943,14 @@
       <c r="I143" t="s">
         <v>31</v>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J143" t="s">
         <v>382</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K143" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -18924,14 +18978,14 @@
       <c r="I144" t="s">
         <v>25</v>
       </c>
-      <c r="J144" s="4" t="s">
+      <c r="J144" t="s">
         <v>343</v>
       </c>
-      <c r="K144" s="4" t="s">
+      <c r="K144" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -18959,14 +19013,14 @@
       <c r="I145" t="s">
         <v>25</v>
       </c>
-      <c r="J145" s="4" t="s">
+      <c r="J145" t="s">
         <v>348</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>128</v>
       </c>
@@ -18994,14 +19048,14 @@
       <c r="I146" t="s">
         <v>10</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J146" t="s">
         <v>338</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K146" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>111</v>
       </c>
@@ -19029,14 +19083,14 @@
       <c r="I147" t="s">
         <v>31</v>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J147" t="s">
         <v>385</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K147" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>129</v>
       </c>
@@ -19064,14 +19118,14 @@
       <c r="I148" t="s">
         <v>31</v>
       </c>
-      <c r="J148" s="4" t="s">
+      <c r="J148" t="s">
         <v>385</v>
       </c>
-      <c r="K148" s="4" t="s">
+      <c r="K148" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>130</v>
       </c>
@@ -19099,14 +19153,14 @@
       <c r="I149" t="s">
         <v>25</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J149" t="s">
         <v>466</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="K149" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>131</v>
       </c>
@@ -19134,14 +19188,14 @@
       <c r="I150" t="s">
         <v>25</v>
       </c>
-      <c r="J150" s="4" t="s">
+      <c r="J150" t="s">
         <v>131</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K150" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>132</v>
       </c>
@@ -19169,14 +19223,14 @@
       <c r="I151" t="s">
         <v>31</v>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J151" t="s">
         <v>385</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>133</v>
       </c>
@@ -19204,14 +19258,14 @@
       <c r="I152" t="s">
         <v>10</v>
       </c>
-      <c r="J152" s="4" t="s">
+      <c r="J152" t="s">
         <v>326</v>
       </c>
-      <c r="K152" s="4" t="s">
+      <c r="K152" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -19239,14 +19293,14 @@
       <c r="I153" t="s">
         <v>10</v>
       </c>
-      <c r="J153" s="4" t="s">
+      <c r="J153" t="s">
         <v>322</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K153" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>134</v>
       </c>
@@ -19274,14 +19328,14 @@
       <c r="I154" t="s">
         <v>10</v>
       </c>
-      <c r="J154" s="4" t="s">
+      <c r="J154" t="s">
         <v>380</v>
       </c>
-      <c r="K154" s="4" t="s">
+      <c r="K154" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -19309,14 +19363,14 @@
       <c r="I155" t="s">
         <v>10</v>
       </c>
-      <c r="J155" s="4" t="s">
+      <c r="J155" t="s">
         <v>330</v>
       </c>
-      <c r="K155" s="4" t="s">
+      <c r="K155" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -19344,14 +19398,14 @@
       <c r="I156" t="s">
         <v>10</v>
       </c>
-      <c r="J156" s="4" t="s">
+      <c r="J156" t="s">
         <v>335</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="K156" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>135</v>
       </c>
@@ -19379,14 +19433,14 @@
       <c r="I157" t="s">
         <v>10</v>
       </c>
-      <c r="J157" s="4" t="s">
+      <c r="J157" t="s">
         <v>322</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="K157" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>136</v>
       </c>
@@ -19414,14 +19468,14 @@
       <c r="I158" t="s">
         <v>10</v>
       </c>
-      <c r="J158" s="4" t="s">
+      <c r="J158" t="s">
         <v>326</v>
       </c>
-      <c r="K158" s="4" t="s">
+      <c r="K158" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -19449,14 +19503,14 @@
       <c r="I159" t="s">
         <v>10</v>
       </c>
-      <c r="J159" s="4" t="s">
+      <c r="J159" t="s">
         <v>330</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K159" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>137</v>
       </c>
@@ -19484,14 +19538,14 @@
       <c r="I160" t="s">
         <v>10</v>
       </c>
-      <c r="J160" s="4" t="s">
+      <c r="J160" t="s">
         <v>324</v>
       </c>
-      <c r="K160" s="4" t="s">
+      <c r="K160" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>138</v>
       </c>
@@ -19519,14 +19573,14 @@
       <c r="I161" t="s">
         <v>10</v>
       </c>
-      <c r="J161" s="4" t="s">
+      <c r="J161" t="s">
         <v>474</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K161" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -19554,14 +19608,14 @@
       <c r="I162" t="s">
         <v>10</v>
       </c>
-      <c r="J162" s="4" t="s">
+      <c r="J162" t="s">
         <v>328</v>
       </c>
-      <c r="K162" s="4" t="s">
+      <c r="K162" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>139</v>
       </c>
@@ -19589,14 +19643,14 @@
       <c r="I163" t="s">
         <v>10</v>
       </c>
-      <c r="J163" s="4" t="s">
+      <c r="J163" t="s">
         <v>326</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="K163" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>140</v>
       </c>
@@ -19624,14 +19678,14 @@
       <c r="I164" t="s">
         <v>10</v>
       </c>
-      <c r="J164" s="4" t="s">
+      <c r="J164" t="s">
         <v>324</v>
       </c>
-      <c r="K164" s="4" t="s">
+      <c r="K164" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>141</v>
       </c>
@@ -19659,14 +19713,14 @@
       <c r="I165" t="s">
         <v>10</v>
       </c>
-      <c r="J165" s="4" t="s">
+      <c r="J165" t="s">
         <v>322</v>
       </c>
-      <c r="K165" s="4" t="s">
+      <c r="K165" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>142</v>
       </c>
@@ -19694,14 +19748,14 @@
       <c r="I166" t="s">
         <v>10</v>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="J166" t="s">
         <v>330</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>143</v>
       </c>
@@ -19729,14 +19783,14 @@
       <c r="I167" t="s">
         <v>25</v>
       </c>
-      <c r="J167" s="4" t="s">
+      <c r="J167" t="s">
         <v>343</v>
       </c>
-      <c r="K167" s="4" t="s">
+      <c r="K167" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>106</v>
       </c>
@@ -19764,14 +19818,14 @@
       <c r="I168" t="s">
         <v>10</v>
       </c>
-      <c r="J168" s="4" t="s">
+      <c r="J168" t="s">
         <v>330</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -19799,14 +19853,14 @@
       <c r="I169" t="s">
         <v>10</v>
       </c>
-      <c r="J169" s="4" t="s">
+      <c r="J169" t="s">
         <v>328</v>
       </c>
-      <c r="K169" s="4" t="s">
+      <c r="K169" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -19834,14 +19888,14 @@
       <c r="I170" t="s">
         <v>10</v>
       </c>
-      <c r="J170" s="4" t="s">
+      <c r="J170" t="s">
         <v>335</v>
       </c>
-      <c r="K170" s="4" t="s">
+      <c r="K170" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -19869,14 +19923,14 @@
       <c r="I171" t="s">
         <v>25</v>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="J171" t="s">
         <v>343</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K171" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>126</v>
       </c>
@@ -19904,14 +19958,14 @@
       <c r="I172" t="s">
         <v>31</v>
       </c>
-      <c r="J172" s="4" t="s">
+      <c r="J172" t="s">
         <v>350</v>
       </c>
-      <c r="K172" s="4" t="s">
+      <c r="K172" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>127</v>
       </c>
@@ -19939,14 +19993,14 @@
       <c r="I173" t="s">
         <v>25</v>
       </c>
-      <c r="J173" s="4" t="s">
+      <c r="J173" t="s">
         <v>348</v>
       </c>
-      <c r="K173" s="4" t="s">
+      <c r="K173" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>106</v>
       </c>
@@ -19974,14 +20028,14 @@
       <c r="I174" t="s">
         <v>10</v>
       </c>
-      <c r="J174" s="4" t="s">
+      <c r="J174" t="s">
         <v>330</v>
       </c>
-      <c r="K174" s="4" t="s">
+      <c r="K174" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>145</v>
       </c>
@@ -20009,14 +20063,14 @@
       <c r="I175" t="s">
         <v>31</v>
       </c>
-      <c r="J175" s="4" t="s">
+      <c r="J175" t="s">
         <v>350</v>
       </c>
-      <c r="K175" s="4" t="s">
+      <c r="K175" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>146</v>
       </c>
@@ -20044,14 +20098,14 @@
       <c r="I176" t="s">
         <v>10</v>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="J176" t="s">
         <v>328</v>
       </c>
-      <c r="K176" s="4" t="s">
+      <c r="K176" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>113</v>
       </c>
@@ -20079,14 +20133,14 @@
       <c r="I177" t="s">
         <v>31</v>
       </c>
-      <c r="J177" s="4" t="s">
+      <c r="J177" t="s">
         <v>354</v>
       </c>
-      <c r="K177" s="4" t="s">
+      <c r="K177" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -20114,14 +20168,14 @@
       <c r="I178" t="s">
         <v>31</v>
       </c>
-      <c r="J178" s="4" t="s">
+      <c r="J178" t="s">
         <v>352</v>
       </c>
-      <c r="K178" s="4" t="s">
+      <c r="K178" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>147</v>
       </c>
@@ -20149,14 +20203,14 @@
       <c r="I179" t="s">
         <v>31</v>
       </c>
-      <c r="J179" s="4" t="s">
+      <c r="J179" t="s">
         <v>409</v>
       </c>
-      <c r="K179" s="4" t="s">
+      <c r="K179" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>116</v>
       </c>
@@ -20184,14 +20238,14 @@
       <c r="I180" t="s">
         <v>31</v>
       </c>
-      <c r="J180" s="4" t="s">
+      <c r="J180" t="s">
         <v>356</v>
       </c>
-      <c r="K180" s="4" t="s">
+      <c r="K180" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>148</v>
       </c>
@@ -20219,14 +20273,14 @@
       <c r="I181" t="s">
         <v>25</v>
       </c>
-      <c r="J181" s="4" t="s">
+      <c r="J181" t="s">
         <v>466</v>
       </c>
-      <c r="K181" s="4" t="s">
+      <c r="K181" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>149</v>
       </c>
@@ -20254,14 +20308,14 @@
       <c r="I182" t="s">
         <v>31</v>
       </c>
-      <c r="J182" s="4" t="s">
+      <c r="J182" t="s">
         <v>385</v>
       </c>
-      <c r="K182" s="4" t="s">
+      <c r="K182" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>55</v>
       </c>
@@ -20289,14 +20343,14 @@
       <c r="I183" t="s">
         <v>31</v>
       </c>
-      <c r="J183" s="4" t="s">
+      <c r="J183" t="s">
         <v>382</v>
       </c>
-      <c r="K183" s="4" t="s">
+      <c r="K183" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>150</v>
       </c>
@@ -20324,14 +20378,14 @@
       <c r="I184" t="s">
         <v>10</v>
       </c>
-      <c r="J184" s="4" t="s">
+      <c r="J184" t="s">
         <v>486</v>
       </c>
-      <c r="K184" s="4" t="s">
+      <c r="K184" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>128</v>
       </c>
@@ -20359,14 +20413,14 @@
       <c r="I185" t="s">
         <v>10</v>
       </c>
-      <c r="J185" s="4" t="s">
+      <c r="J185" t="s">
         <v>338</v>
       </c>
-      <c r="K185" s="4" t="s">
+      <c r="K185" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>151</v>
       </c>
@@ -20394,14 +20448,14 @@
       <c r="I186" t="s">
         <v>31</v>
       </c>
-      <c r="J186" s="4" t="s">
+      <c r="J186" t="s">
         <v>413</v>
       </c>
-      <c r="K186" s="4" t="s">
+      <c r="K186" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>121</v>
       </c>
@@ -20429,14 +20483,14 @@
       <c r="I187" t="s">
         <v>10</v>
       </c>
-      <c r="J187" s="4" t="s">
+      <c r="J187" t="s">
         <v>322</v>
       </c>
-      <c r="K187" s="4" t="s">
+      <c r="K187" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>152</v>
       </c>
@@ -20464,14 +20518,14 @@
       <c r="I188" t="s">
         <v>10</v>
       </c>
-      <c r="J188" s="4" t="s">
+      <c r="J188" t="s">
         <v>338</v>
       </c>
-      <c r="K188" s="4" t="s">
+      <c r="K188" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>45</v>
       </c>
@@ -20499,14 +20553,14 @@
       <c r="I189" t="s">
         <v>10</v>
       </c>
-      <c r="J189" s="4" t="s">
+      <c r="J189" t="s">
         <v>328</v>
       </c>
-      <c r="K189" s="4" t="s">
+      <c r="K189" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>88</v>
       </c>
@@ -20534,14 +20588,14 @@
       <c r="I190" t="s">
         <v>10</v>
       </c>
-      <c r="J190" s="4" t="s">
+      <c r="J190" t="s">
         <v>330</v>
       </c>
-      <c r="K190" s="4" t="s">
+      <c r="K190" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>97</v>
       </c>
@@ -20569,14 +20623,14 @@
       <c r="I191" t="s">
         <v>10</v>
       </c>
-      <c r="J191" s="4" t="s">
+      <c r="J191" t="s">
         <v>326</v>
       </c>
-      <c r="K191" s="4" t="s">
+      <c r="K191" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>119</v>
       </c>
@@ -20604,14 +20658,14 @@
       <c r="I192" t="s">
         <v>10</v>
       </c>
-      <c r="J192" s="4" t="s">
+      <c r="J192" t="s">
         <v>322</v>
       </c>
-      <c r="K192" s="4" t="s">
+      <c r="K192" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -20639,14 +20693,14 @@
       <c r="I193" t="s">
         <v>10</v>
       </c>
-      <c r="J193" s="4" t="s">
+      <c r="J193" t="s">
         <v>330</v>
       </c>
-      <c r="K193" s="4" t="s">
+      <c r="K193" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>27</v>
       </c>
@@ -20674,14 +20728,14 @@
       <c r="I194" t="s">
         <v>10</v>
       </c>
-      <c r="J194" s="4" t="s">
+      <c r="J194" t="s">
         <v>328</v>
       </c>
-      <c r="K194" s="4" t="s">
+      <c r="K194" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -20709,14 +20763,14 @@
       <c r="I195" t="s">
         <v>10</v>
       </c>
-      <c r="J195" s="4" t="s">
+      <c r="J195" t="s">
         <v>322</v>
       </c>
-      <c r="K195" s="4" t="s">
+      <c r="K195" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>154</v>
       </c>
@@ -20744,14 +20798,14 @@
       <c r="I196" t="s">
         <v>10</v>
       </c>
-      <c r="J196" s="4" t="s">
+      <c r="J196" t="s">
         <v>322</v>
       </c>
-      <c r="K196" s="4" t="s">
+      <c r="K196" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>155</v>
       </c>
@@ -20779,14 +20833,14 @@
       <c r="I197" t="s">
         <v>31</v>
       </c>
-      <c r="J197" s="4" t="s">
+      <c r="J197" t="s">
         <v>492</v>
       </c>
-      <c r="K197" s="4" t="s">
+      <c r="K197" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>130</v>
       </c>
@@ -20814,14 +20868,14 @@
       <c r="I198" t="s">
         <v>25</v>
       </c>
-      <c r="J198" s="4" t="s">
+      <c r="J198" t="s">
         <v>466</v>
       </c>
-      <c r="K198" s="4" t="s">
+      <c r="K198" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>156</v>
       </c>
@@ -20849,14 +20903,14 @@
       <c r="I199" t="s">
         <v>10</v>
       </c>
-      <c r="J199" s="4" t="s">
+      <c r="J199" t="s">
         <v>338</v>
       </c>
-      <c r="K199" s="4" t="s">
+      <c r="K199" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>157</v>
       </c>
@@ -20884,14 +20938,14 @@
       <c r="I200" t="s">
         <v>10</v>
       </c>
-      <c r="J200" s="4" t="s">
+      <c r="J200" t="s">
         <v>330</v>
       </c>
-      <c r="K200" s="4" t="s">
+      <c r="K200" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>158</v>
       </c>
@@ -20919,14 +20973,14 @@
       <c r="I201" t="s">
         <v>10</v>
       </c>
-      <c r="J201" s="4" t="s">
+      <c r="J201" t="s">
         <v>335</v>
       </c>
-      <c r="K201" s="4" t="s">
+      <c r="K201" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>159</v>
       </c>
@@ -20954,14 +21008,14 @@
       <c r="I202" t="s">
         <v>10</v>
       </c>
-      <c r="J202" s="4" t="s">
+      <c r="J202" t="s">
         <v>328</v>
       </c>
-      <c r="K202" s="4" t="s">
+      <c r="K202" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>145</v>
       </c>
@@ -20989,14 +21043,14 @@
       <c r="I203" t="s">
         <v>31</v>
       </c>
-      <c r="J203" s="4" t="s">
+      <c r="J203" t="s">
         <v>350</v>
       </c>
-      <c r="K203" s="4" t="s">
+      <c r="K203" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>160</v>
       </c>
@@ -21024,14 +21078,14 @@
       <c r="I204" t="s">
         <v>25</v>
       </c>
-      <c r="J204" s="4" t="s">
+      <c r="J204" t="s">
         <v>348</v>
       </c>
-      <c r="K204" s="4" t="s">
+      <c r="K204" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>143</v>
       </c>
@@ -21059,14 +21113,14 @@
       <c r="I205" t="s">
         <v>25</v>
       </c>
-      <c r="J205" s="4" t="s">
+      <c r="J205" t="s">
         <v>343</v>
       </c>
-      <c r="K205" s="4" t="s">
+      <c r="K205" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>106</v>
       </c>
@@ -21094,14 +21148,14 @@
       <c r="I206" t="s">
         <v>10</v>
       </c>
-      <c r="J206" s="4" t="s">
+      <c r="J206" t="s">
         <v>330</v>
       </c>
-      <c r="K206" s="4" t="s">
+      <c r="K206" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>161</v>
       </c>
@@ -21129,14 +21183,14 @@
       <c r="I207" t="s">
         <v>31</v>
       </c>
-      <c r="J207" s="4" t="s">
+      <c r="J207" t="s">
         <v>409</v>
       </c>
-      <c r="K207" s="4" t="s">
+      <c r="K207" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>162</v>
       </c>
@@ -21164,14 +21218,14 @@
       <c r="I208" t="s">
         <v>10</v>
       </c>
-      <c r="J208" s="4" t="s">
+      <c r="J208" t="s">
         <v>326</v>
       </c>
-      <c r="K208" s="4" t="s">
+      <c r="K208" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -21199,14 +21253,14 @@
       <c r="I209" t="s">
         <v>31</v>
       </c>
-      <c r="J209" s="4" t="s">
+      <c r="J209" t="s">
         <v>352</v>
       </c>
-      <c r="K209" s="4" t="s">
+      <c r="K209" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -21234,14 +21288,14 @@
       <c r="I210" t="s">
         <v>25</v>
       </c>
-      <c r="J210" s="4" t="s">
+      <c r="J210" t="s">
         <v>343</v>
       </c>
-      <c r="K210" s="4" t="s">
+      <c r="K210" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>163</v>
       </c>
@@ -21269,14 +21323,14 @@
       <c r="I211" t="s">
         <v>31</v>
       </c>
-      <c r="J211" s="4" t="s">
+      <c r="J211" t="s">
         <v>500</v>
       </c>
-      <c r="K211" s="4" t="s">
+      <c r="K211" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>164</v>
       </c>
@@ -21304,14 +21358,14 @@
       <c r="I212" t="s">
         <v>10</v>
       </c>
-      <c r="J212" s="4" t="s">
+      <c r="J212" t="s">
         <v>502</v>
       </c>
-      <c r="K212" s="4" t="s">
+      <c r="K212" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>165</v>
       </c>
@@ -21339,14 +21393,14 @@
       <c r="I213" t="s">
         <v>10</v>
       </c>
-      <c r="J213" s="4" t="s">
+      <c r="J213" t="s">
         <v>362</v>
       </c>
-      <c r="K213" s="4" t="s">
+      <c r="K213" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -21374,14 +21428,14 @@
       <c r="I214" t="s">
         <v>10</v>
       </c>
-      <c r="J214" s="4" t="s">
+      <c r="J214" t="s">
         <v>330</v>
       </c>
-      <c r="K214" s="4" t="s">
+      <c r="K214" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>167</v>
       </c>
@@ -21409,14 +21463,14 @@
       <c r="I215" t="s">
         <v>10</v>
       </c>
-      <c r="J215" s="4" t="s">
+      <c r="J215" t="s">
         <v>338</v>
       </c>
-      <c r="K215" s="4" t="s">
+      <c r="K215" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>168</v>
       </c>
@@ -21444,14 +21498,14 @@
       <c r="I216" t="s">
         <v>25</v>
       </c>
-      <c r="J216" s="4" t="s">
+      <c r="J216" t="s">
         <v>466</v>
       </c>
-      <c r="K216" s="4" t="s">
+      <c r="K216" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>169</v>
       </c>
@@ -21479,14 +21533,14 @@
       <c r="I217" t="s">
         <v>10</v>
       </c>
-      <c r="J217" s="4" t="s">
+      <c r="J217" t="s">
         <v>324</v>
       </c>
-      <c r="K217" s="4" t="s">
+      <c r="K217" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>170</v>
       </c>
@@ -21514,14 +21568,14 @@
       <c r="I218" t="s">
         <v>31</v>
       </c>
-      <c r="J218" s="4" t="s">
+      <c r="J218" t="s">
         <v>413</v>
       </c>
-      <c r="K218" s="4" t="s">
+      <c r="K218" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>171</v>
       </c>
@@ -21549,14 +21603,14 @@
       <c r="I219" t="s">
         <v>10</v>
       </c>
-      <c r="J219" s="4" t="s">
+      <c r="J219" t="s">
         <v>326</v>
       </c>
-      <c r="K219" s="4" t="s">
+      <c r="K219" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>172</v>
       </c>
@@ -21584,14 +21638,14 @@
       <c r="I220" t="s">
         <v>25</v>
       </c>
-      <c r="J220" s="4" t="s">
+      <c r="J220" t="s">
         <v>348</v>
       </c>
-      <c r="K220" s="4" t="s">
+      <c r="K220" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -21619,14 +21673,14 @@
       <c r="I221" t="s">
         <v>10</v>
       </c>
-      <c r="J221" s="4" t="s">
+      <c r="J221" t="s">
         <v>322</v>
       </c>
-      <c r="K221" s="4" t="s">
+      <c r="K221" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>173</v>
       </c>
@@ -21654,14 +21708,14 @@
       <c r="I222" t="s">
         <v>10</v>
       </c>
-      <c r="J222" s="4" t="s">
+      <c r="J222" t="s">
         <v>399</v>
       </c>
-      <c r="K222" s="4" t="s">
+      <c r="K222" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>174</v>
       </c>
@@ -21689,14 +21743,14 @@
       <c r="I223" t="s">
         <v>10</v>
       </c>
-      <c r="J223" s="4" t="s">
+      <c r="J223" t="s">
         <v>338</v>
       </c>
-      <c r="K223" s="4" t="s">
+      <c r="K223" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>175</v>
       </c>
@@ -21724,14 +21778,14 @@
       <c r="I224" t="s">
         <v>10</v>
       </c>
-      <c r="J224" s="4" t="s">
+      <c r="J224" t="s">
         <v>380</v>
       </c>
-      <c r="K224" s="4" t="s">
+      <c r="K224" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>176</v>
       </c>
@@ -21759,14 +21813,14 @@
       <c r="I225" t="s">
         <v>10</v>
       </c>
-      <c r="J225" s="4" t="s">
+      <c r="J225" t="s">
         <v>322</v>
       </c>
-      <c r="K225" s="4" t="s">
+      <c r="K225" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>177</v>
       </c>
@@ -21794,14 +21848,14 @@
       <c r="I226" t="s">
         <v>10</v>
       </c>
-      <c r="J226" s="4" t="s">
+      <c r="J226" t="s">
         <v>324</v>
       </c>
-      <c r="K226" s="4" t="s">
+      <c r="K226" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>178</v>
       </c>
@@ -21829,14 +21883,14 @@
       <c r="I227" t="s">
         <v>10</v>
       </c>
-      <c r="J227" s="4" t="s">
+      <c r="J227" t="s">
         <v>326</v>
       </c>
-      <c r="K227" s="4" t="s">
+      <c r="K227" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>179</v>
       </c>
@@ -21864,14 +21918,14 @@
       <c r="I228" t="s">
         <v>10</v>
       </c>
-      <c r="J228" s="4" t="s">
+      <c r="J228" t="s">
         <v>330</v>
       </c>
-      <c r="K228" s="4" t="s">
+      <c r="K228" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>180</v>
       </c>
@@ -21899,14 +21953,14 @@
       <c r="I229" t="s">
         <v>10</v>
       </c>
-      <c r="J229" s="4" t="s">
+      <c r="J229" t="s">
         <v>335</v>
       </c>
-      <c r="K229" s="4" t="s">
+      <c r="K229" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>181</v>
       </c>
@@ -21934,14 +21988,14 @@
       <c r="I230" t="s">
         <v>10</v>
       </c>
-      <c r="J230" s="4" t="s">
+      <c r="J230" t="s">
         <v>322</v>
       </c>
-      <c r="K230" s="4" t="s">
+      <c r="K230" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>182</v>
       </c>
@@ -21969,14 +22023,14 @@
       <c r="I231" t="s">
         <v>10</v>
       </c>
-      <c r="J231" s="4" t="s">
+      <c r="J231" t="s">
         <v>401</v>
       </c>
-      <c r="K231" s="4" t="s">
+      <c r="K231" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>183</v>
       </c>
@@ -22004,14 +22058,14 @@
       <c r="I232" t="s">
         <v>10</v>
       </c>
-      <c r="J232" s="4" t="s">
+      <c r="J232" t="s">
         <v>330</v>
       </c>
-      <c r="K232" s="4" t="s">
+      <c r="K232" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>184</v>
       </c>
@@ -22039,14 +22093,14 @@
       <c r="I233" t="s">
         <v>31</v>
       </c>
-      <c r="J233" s="4" t="s">
+      <c r="J233" t="s">
         <v>350</v>
       </c>
-      <c r="K233" s="4" t="s">
+      <c r="K233" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>185</v>
       </c>
@@ -22074,14 +22128,14 @@
       <c r="I234" t="s">
         <v>10</v>
       </c>
-      <c r="J234" s="4" t="s">
+      <c r="J234" t="s">
         <v>335</v>
       </c>
-      <c r="K234" s="4" t="s">
+      <c r="K234" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>186</v>
       </c>
@@ -22109,14 +22163,14 @@
       <c r="I235" t="s">
         <v>25</v>
       </c>
-      <c r="J235" s="4" t="s">
+      <c r="J235" t="s">
         <v>343</v>
       </c>
-      <c r="K235" s="4" t="s">
+      <c r="K235" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>187</v>
       </c>
@@ -22144,14 +22198,14 @@
       <c r="I236" t="s">
         <v>10</v>
       </c>
-      <c r="J236" s="4" t="s">
+      <c r="J236" t="s">
         <v>330</v>
       </c>
-      <c r="K236" s="4" t="s">
+      <c r="K236" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>153</v>
       </c>
@@ -22179,14 +22233,14 @@
       <c r="I237" t="s">
         <v>10</v>
       </c>
-      <c r="J237" s="4" t="s">
+      <c r="J237" t="s">
         <v>322</v>
       </c>
-      <c r="K237" s="4" t="s">
+      <c r="K237" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>188</v>
       </c>
@@ -22214,14 +22268,14 @@
       <c r="I238" t="s">
         <v>10</v>
       </c>
-      <c r="J238" s="4" t="s">
+      <c r="J238" t="s">
         <v>338</v>
       </c>
-      <c r="K238" s="4" t="s">
+      <c r="K238" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>189</v>
       </c>
@@ -22249,14 +22303,14 @@
       <c r="I239" t="s">
         <v>25</v>
       </c>
-      <c r="J239" s="4" t="s">
+      <c r="J239" t="s">
         <v>131</v>
       </c>
-      <c r="K239" s="4" t="s">
+      <c r="K239" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>126</v>
       </c>
@@ -22284,14 +22338,14 @@
       <c r="I240" t="s">
         <v>31</v>
       </c>
-      <c r="J240" s="4" t="s">
+      <c r="J240" t="s">
         <v>350</v>
       </c>
-      <c r="K240" s="4" t="s">
+      <c r="K240" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>190</v>
       </c>
@@ -22319,14 +22373,14 @@
       <c r="I241" t="s">
         <v>25</v>
       </c>
-      <c r="J241" s="4" t="s">
+      <c r="J241" t="s">
         <v>348</v>
       </c>
-      <c r="K241" s="4" t="s">
+      <c r="K241" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>191</v>
       </c>
@@ -22354,14 +22408,14 @@
       <c r="I242" t="s">
         <v>31</v>
       </c>
-      <c r="J242" s="4" t="s">
+      <c r="J242" t="s">
         <v>358</v>
       </c>
-      <c r="K242" s="4" t="s">
+      <c r="K242" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>192</v>
       </c>
@@ -22389,14 +22443,14 @@
       <c r="I243" t="s">
         <v>25</v>
       </c>
-      <c r="J243" s="4" t="s">
+      <c r="J243" t="s">
         <v>403</v>
       </c>
-      <c r="K243" s="4" t="s">
+      <c r="K243" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>193</v>
       </c>
@@ -22424,14 +22478,14 @@
       <c r="I244" t="s">
         <v>31</v>
       </c>
-      <c r="J244" s="4" t="s">
+      <c r="J244" t="s">
         <v>350</v>
       </c>
-      <c r="K244" s="4" t="s">
+      <c r="K244" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>194</v>
       </c>
@@ -22459,14 +22513,14 @@
       <c r="I245" t="s">
         <v>10</v>
       </c>
-      <c r="J245" s="4" t="s">
+      <c r="J245" t="s">
         <v>330</v>
       </c>
-      <c r="K245" s="4" t="s">
+      <c r="K245" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>195</v>
       </c>
@@ -22494,14 +22548,14 @@
       <c r="I246" t="s">
         <v>25</v>
       </c>
-      <c r="J246" s="4" t="s">
+      <c r="J246" t="s">
         <v>403</v>
       </c>
-      <c r="K246" s="4" t="s">
+      <c r="K246" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>196</v>
       </c>
@@ -22529,14 +22583,14 @@
       <c r="I247" t="s">
         <v>25</v>
       </c>
-      <c r="J247" s="4" t="s">
+      <c r="J247" t="s">
         <v>348</v>
       </c>
-      <c r="K247" s="4" t="s">
+      <c r="K247" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>148</v>
       </c>
@@ -22564,14 +22618,14 @@
       <c r="I248" t="s">
         <v>25</v>
       </c>
-      <c r="J248" s="4" t="s">
+      <c r="J248" t="s">
         <v>466</v>
       </c>
-      <c r="K248" s="4" t="s">
+      <c r="K248" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>197</v>
       </c>
@@ -22599,14 +22653,14 @@
       <c r="I249" t="s">
         <v>10</v>
       </c>
-      <c r="J249" s="4" t="s">
+      <c r="J249" t="s">
         <v>399</v>
       </c>
-      <c r="K249" s="4" t="s">
+      <c r="K249" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>198</v>
       </c>
@@ -22634,14 +22688,14 @@
       <c r="I250" t="s">
         <v>10</v>
       </c>
-      <c r="J250" s="4" t="s">
+      <c r="J250" t="s">
         <v>338</v>
       </c>
-      <c r="K250" s="4" t="s">
+      <c r="K250" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>199</v>
       </c>
@@ -22669,14 +22723,14 @@
       <c r="I251" t="s">
         <v>10</v>
       </c>
-      <c r="J251" s="4" t="s">
+      <c r="J251" t="s">
         <v>380</v>
       </c>
-      <c r="K251" s="4" t="s">
+      <c r="K251" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>200</v>
       </c>
@@ -22704,14 +22758,14 @@
       <c r="I252" t="s">
         <v>10</v>
       </c>
-      <c r="J252" s="4" t="s">
+      <c r="J252" t="s">
         <v>335</v>
       </c>
-      <c r="K252" s="4" t="s">
+      <c r="K252" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>87</v>
       </c>
@@ -22739,14 +22793,14 @@
       <c r="I253" t="s">
         <v>10</v>
       </c>
-      <c r="J253" s="4" t="s">
+      <c r="J253" t="s">
         <v>322</v>
       </c>
-      <c r="K253" s="4" t="s">
+      <c r="K253" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>201</v>
       </c>
@@ -22774,14 +22828,14 @@
       <c r="I254" t="s">
         <v>10</v>
       </c>
-      <c r="J254" s="4" t="s">
+      <c r="J254" t="s">
         <v>330</v>
       </c>
-      <c r="K254" s="4" t="s">
+      <c r="K254" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>202</v>
       </c>
@@ -22809,14 +22863,14 @@
       <c r="I255" t="s">
         <v>10</v>
       </c>
-      <c r="J255" s="4" t="s">
+      <c r="J255" t="s">
         <v>330</v>
       </c>
-      <c r="K255" s="4" t="s">
+      <c r="K255" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>203</v>
       </c>
@@ -22844,14 +22898,14 @@
       <c r="I256" t="s">
         <v>10</v>
       </c>
-      <c r="J256" s="4" t="s">
+      <c r="J256" t="s">
         <v>326</v>
       </c>
-      <c r="K256" s="4" t="s">
+      <c r="K256" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>204</v>
       </c>
@@ -22879,14 +22933,14 @@
       <c r="I257" t="s">
         <v>10</v>
       </c>
-      <c r="J257" s="4" t="s">
+      <c r="J257" t="s">
         <v>328</v>
       </c>
-      <c r="K257" s="4" t="s">
+      <c r="K257" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>205</v>
       </c>
@@ -22914,14 +22968,14 @@
       <c r="I258" t="s">
         <v>10</v>
       </c>
-      <c r="J258" s="4" t="s">
+      <c r="J258" t="s">
         <v>324</v>
       </c>
-      <c r="K258" s="4" t="s">
+      <c r="K258" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>206</v>
       </c>
@@ -22949,14 +23003,14 @@
       <c r="I259" t="s">
         <v>10</v>
       </c>
-      <c r="J259" s="4" t="s">
+      <c r="J259" t="s">
         <v>380</v>
       </c>
-      <c r="K259" s="4" t="s">
+      <c r="K259" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>207</v>
       </c>
@@ -22984,14 +23038,14 @@
       <c r="I260" t="s">
         <v>10</v>
       </c>
-      <c r="J260" s="4" t="s">
+      <c r="J260" t="s">
         <v>338</v>
       </c>
-      <c r="K260" s="4" t="s">
+      <c r="K260" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>208</v>
       </c>
@@ -23019,14 +23073,14 @@
       <c r="I261" t="s">
         <v>10</v>
       </c>
-      <c r="J261" s="4" t="s">
+      <c r="J261" t="s">
         <v>328</v>
       </c>
-      <c r="K261" s="4" t="s">
+      <c r="K261" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>181</v>
       </c>
@@ -23054,14 +23108,14 @@
       <c r="I262" t="s">
         <v>10</v>
       </c>
-      <c r="J262" s="4" t="s">
+      <c r="J262" t="s">
         <v>322</v>
       </c>
-      <c r="K262" s="4" t="s">
+      <c r="K262" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>209</v>
       </c>
@@ -23089,14 +23143,14 @@
       <c r="I263" t="s">
         <v>10</v>
       </c>
-      <c r="J263" s="4" t="s">
+      <c r="J263" t="s">
         <v>324</v>
       </c>
-      <c r="K263" s="4" t="s">
+      <c r="K263" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>210</v>
       </c>
@@ -23124,14 +23178,14 @@
       <c r="I264" t="s">
         <v>10</v>
       </c>
-      <c r="J264" s="4" t="s">
+      <c r="J264" t="s">
         <v>330</v>
       </c>
-      <c r="K264" s="4" t="s">
+      <c r="K264" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>211</v>
       </c>
@@ -23159,14 +23213,14 @@
       <c r="I265" t="s">
         <v>10</v>
       </c>
-      <c r="J265" s="4" t="s">
+      <c r="J265" t="s">
         <v>338</v>
       </c>
-      <c r="K265" s="4" t="s">
+      <c r="K265" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>153</v>
       </c>
@@ -23194,14 +23248,14 @@
       <c r="I266" t="s">
         <v>10</v>
       </c>
-      <c r="J266" s="4" t="s">
+      <c r="J266" t="s">
         <v>322</v>
       </c>
-      <c r="K266" s="4" t="s">
+      <c r="K266" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>42</v>
       </c>
@@ -23229,14 +23283,14 @@
       <c r="I267" t="s">
         <v>25</v>
       </c>
-      <c r="J267" s="4" t="s">
+      <c r="J267" t="s">
         <v>343</v>
       </c>
-      <c r="K267" s="4" t="s">
+      <c r="K267" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>212</v>
       </c>
@@ -23264,14 +23318,14 @@
       <c r="I268" t="s">
         <v>25</v>
       </c>
-      <c r="J268" s="4" t="s">
+      <c r="J268" t="s">
         <v>348</v>
       </c>
-      <c r="K268" s="4" t="s">
+      <c r="K268" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>213</v>
       </c>
@@ -23299,14 +23353,14 @@
       <c r="I269" t="s">
         <v>10</v>
       </c>
-      <c r="J269" s="4" t="s">
+      <c r="J269" t="s">
         <v>338</v>
       </c>
-      <c r="K269" s="4" t="s">
+      <c r="K269" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>214</v>
       </c>
@@ -23334,14 +23388,14 @@
       <c r="I270" t="s">
         <v>25</v>
       </c>
-      <c r="J270" s="4" t="s">
+      <c r="J270" t="s">
         <v>343</v>
       </c>
-      <c r="K270" s="4" t="s">
+      <c r="K270" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>215</v>
       </c>
@@ -23369,14 +23423,14 @@
       <c r="I271" t="s">
         <v>10</v>
       </c>
-      <c r="J271" s="4" t="s">
+      <c r="J271" t="s">
         <v>326</v>
       </c>
-      <c r="K271" s="4" t="s">
+      <c r="K271" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>216</v>
       </c>
@@ -23404,14 +23458,14 @@
       <c r="I272" t="s">
         <v>10</v>
       </c>
-      <c r="J272" s="4" t="s">
+      <c r="J272" t="s">
         <v>399</v>
       </c>
-      <c r="K272" s="4" t="s">
+      <c r="K272" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>217</v>
       </c>
@@ -23439,14 +23493,14 @@
       <c r="I273" t="s">
         <v>25</v>
       </c>
-      <c r="J273" s="4" t="s">
+      <c r="J273" t="s">
         <v>348</v>
       </c>
-      <c r="K273" s="4" t="s">
+      <c r="K273" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>218</v>
       </c>
@@ -23474,14 +23528,14 @@
       <c r="I274" t="s">
         <v>31</v>
       </c>
-      <c r="J274" s="4" t="s">
+      <c r="J274" t="s">
         <v>354</v>
       </c>
-      <c r="K274" s="4" t="s">
+      <c r="K274" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>219</v>
       </c>
@@ -23509,14 +23563,14 @@
       <c r="I275" t="s">
         <v>31</v>
       </c>
-      <c r="J275" s="4" t="s">
+      <c r="J275" t="s">
         <v>409</v>
       </c>
-      <c r="K275" s="4" t="s">
+      <c r="K275" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>220</v>
       </c>
@@ -23544,14 +23598,14 @@
       <c r="I276" t="s">
         <v>31</v>
       </c>
-      <c r="J276" s="4" t="s">
+      <c r="J276" t="s">
         <v>356</v>
       </c>
-      <c r="K276" s="4" t="s">
+      <c r="K276" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>221</v>
       </c>
@@ -23579,14 +23633,14 @@
       <c r="I277" t="s">
         <v>31</v>
       </c>
-      <c r="J277" s="4" t="s">
+      <c r="J277" t="s">
         <v>352</v>
       </c>
-      <c r="K277" s="4" t="s">
+      <c r="K277" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>222</v>
       </c>
@@ -23614,14 +23668,14 @@
       <c r="I278" t="s">
         <v>31</v>
       </c>
-      <c r="J278" s="4" t="s">
+      <c r="J278" t="s">
         <v>350</v>
       </c>
-      <c r="K278" s="4" t="s">
+      <c r="K278" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>223</v>
       </c>
@@ -23649,14 +23703,14 @@
       <c r="I279" t="s">
         <v>25</v>
       </c>
-      <c r="J279" s="4" t="s">
+      <c r="J279" t="s">
         <v>466</v>
       </c>
-      <c r="K279" s="4" t="s">
+      <c r="K279" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>224</v>
       </c>
@@ -23684,14 +23738,14 @@
       <c r="I280" t="s">
         <v>10</v>
       </c>
-      <c r="J280" s="4" t="s">
+      <c r="J280" t="s">
         <v>335</v>
       </c>
-      <c r="K280" s="4" t="s">
+      <c r="K280" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>225</v>
       </c>
@@ -23719,14 +23773,14 @@
       <c r="I281" t="s">
         <v>10</v>
       </c>
-      <c r="J281" s="4" t="s">
+      <c r="J281" t="s">
         <v>380</v>
       </c>
-      <c r="K281" s="4" t="s">
+      <c r="K281" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>226</v>
       </c>
@@ -23754,14 +23808,14 @@
       <c r="I282" t="s">
         <v>10</v>
       </c>
-      <c r="J282" s="4" t="s">
+      <c r="J282" t="s">
         <v>330</v>
       </c>
-      <c r="K282" s="4" t="s">
+      <c r="K282" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>227</v>
       </c>
@@ -23789,14 +23843,14 @@
       <c r="I283" t="s">
         <v>10</v>
       </c>
-      <c r="J283" s="4" t="s">
+      <c r="J283" t="s">
         <v>328</v>
       </c>
-      <c r="K283" s="4" t="s">
+      <c r="K283" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>228</v>
       </c>
@@ -23824,14 +23878,14 @@
       <c r="I284" t="s">
         <v>10</v>
       </c>
-      <c r="J284" s="4" t="s">
+      <c r="J284" t="s">
         <v>338</v>
       </c>
-      <c r="K284" s="4" t="s">
+      <c r="K284" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>91</v>
       </c>
@@ -23859,14 +23913,14 @@
       <c r="I285" t="s">
         <v>10</v>
       </c>
-      <c r="J285" s="4" t="s">
+      <c r="J285" t="s">
         <v>322</v>
       </c>
-      <c r="K285" s="4" t="s">
+      <c r="K285" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>229</v>
       </c>
@@ -23894,14 +23948,14 @@
       <c r="I286" t="s">
         <v>10</v>
       </c>
-      <c r="J286" s="4" t="s">
+      <c r="J286" t="s">
         <v>330</v>
       </c>
-      <c r="K286" s="4" t="s">
+      <c r="K286" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>230</v>
       </c>
@@ -23929,14 +23983,14 @@
       <c r="I287" t="s">
         <v>10</v>
       </c>
-      <c r="J287" s="4" t="s">
+      <c r="J287" t="s">
         <v>380</v>
       </c>
-      <c r="K287" s="4" t="s">
+      <c r="K287" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>231</v>
       </c>
@@ -23964,14 +24018,14 @@
       <c r="I288" t="s">
         <v>10</v>
       </c>
-      <c r="J288" s="4" t="s">
+      <c r="J288" t="s">
         <v>338</v>
       </c>
-      <c r="K288" s="4" t="s">
+      <c r="K288" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>23</v>
       </c>
@@ -23999,14 +24053,14 @@
       <c r="I289" t="s">
         <v>10</v>
       </c>
-      <c r="J289" s="4" t="s">
+      <c r="J289" t="s">
         <v>324</v>
       </c>
-      <c r="K289" s="4" t="s">
+      <c r="K289" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>48</v>
       </c>
@@ -24034,14 +24088,14 @@
       <c r="I290" t="s">
         <v>10</v>
       </c>
-      <c r="J290" s="4" t="s">
+      <c r="J290" t="s">
         <v>330</v>
       </c>
-      <c r="K290" s="4" t="s">
+      <c r="K290" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>232</v>
       </c>
@@ -24069,14 +24123,14 @@
       <c r="I291" t="s">
         <v>10</v>
       </c>
-      <c r="J291" s="4" t="s">
+      <c r="J291" t="s">
         <v>322</v>
       </c>
-      <c r="K291" s="4" t="s">
+      <c r="K291" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>233</v>
       </c>
@@ -24104,14 +24158,14 @@
       <c r="I292" t="s">
         <v>10</v>
       </c>
-      <c r="J292" s="4" t="s">
+      <c r="J292" t="s">
         <v>401</v>
       </c>
-      <c r="K292" s="4" t="s">
+      <c r="K292" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>234</v>
       </c>
@@ -24139,14 +24193,14 @@
       <c r="I293" t="s">
         <v>31</v>
       </c>
-      <c r="J293" s="4" t="s">
+      <c r="J293" t="s">
         <v>492</v>
       </c>
-      <c r="K293" s="4" t="s">
+      <c r="K293" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>235</v>
       </c>
@@ -24174,14 +24228,14 @@
       <c r="I294" t="s">
         <v>25</v>
       </c>
-      <c r="J294" s="4" t="s">
+      <c r="J294" t="s">
         <v>440</v>
       </c>
-      <c r="K294" s="4" t="s">
+      <c r="K294" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>236</v>
       </c>
@@ -24209,14 +24263,14 @@
       <c r="I295" t="s">
         <v>10</v>
       </c>
-      <c r="J295" s="4" t="s">
+      <c r="J295" t="s">
         <v>338</v>
       </c>
-      <c r="K295" s="4" t="s">
+      <c r="K295" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>237</v>
       </c>
@@ -24244,14 +24298,14 @@
       <c r="I296" t="s">
         <v>10</v>
       </c>
-      <c r="J296" s="4" t="s">
+      <c r="J296" t="s">
         <v>328</v>
       </c>
-      <c r="K296" s="4" t="s">
+      <c r="K296" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>238</v>
       </c>
@@ -24279,14 +24333,14 @@
       <c r="I297" t="s">
         <v>31</v>
       </c>
-      <c r="J297" s="4" t="s">
+      <c r="J297" t="s">
         <v>575</v>
       </c>
-      <c r="K297" s="4" t="s">
+      <c r="K297" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>239</v>
       </c>
@@ -24314,14 +24368,14 @@
       <c r="I298" t="s">
         <v>10</v>
       </c>
-      <c r="J298" s="4" t="s">
+      <c r="J298" t="s">
         <v>502</v>
       </c>
-      <c r="K298" s="4" t="s">
+      <c r="K298" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -24349,14 +24403,14 @@
       <c r="I299" t="s">
         <v>31</v>
       </c>
-      <c r="J299" s="4" t="s">
+      <c r="J299" t="s">
         <v>352</v>
       </c>
-      <c r="K299" s="4" t="s">
+      <c r="K299" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>197</v>
       </c>
@@ -24384,14 +24438,14 @@
       <c r="I300" t="s">
         <v>10</v>
       </c>
-      <c r="J300" s="4" t="s">
+      <c r="J300" t="s">
         <v>399</v>
       </c>
-      <c r="K300" s="4" t="s">
+      <c r="K300" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>240</v>
       </c>
@@ -24419,14 +24473,14 @@
       <c r="I301" t="s">
         <v>10</v>
       </c>
-      <c r="J301" s="4" t="s">
+      <c r="J301" t="s">
         <v>326</v>
       </c>
-      <c r="K301" s="4" t="s">
+      <c r="K301" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>241</v>
       </c>
@@ -24454,14 +24508,14 @@
       <c r="I302" t="s">
         <v>10</v>
       </c>
-      <c r="J302" s="4" t="s">
+      <c r="J302" t="s">
         <v>326</v>
       </c>
-      <c r="K302" s="4" t="s">
+      <c r="K302" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>242</v>
       </c>
@@ -24489,14 +24543,14 @@
       <c r="I303" t="s">
         <v>25</v>
       </c>
-      <c r="J303" s="4" t="s">
+      <c r="J303" t="s">
         <v>348</v>
       </c>
-      <c r="K303" s="4" t="s">
+      <c r="K303" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>243</v>
       </c>
@@ -24524,14 +24578,14 @@
       <c r="I304" t="s">
         <v>31</v>
       </c>
-      <c r="J304" s="4" t="s">
+      <c r="J304" t="s">
         <v>385</v>
       </c>
-      <c r="K304" s="4" t="s">
+      <c r="K304" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>244</v>
       </c>
@@ -24559,14 +24613,14 @@
       <c r="I305" t="s">
         <v>10</v>
       </c>
-      <c r="J305" s="4" t="s">
+      <c r="J305" t="s">
         <v>324</v>
       </c>
-      <c r="K305" s="4" t="s">
+      <c r="K305" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>245</v>
       </c>
@@ -24594,14 +24648,14 @@
       <c r="I306" t="s">
         <v>10</v>
       </c>
-      <c r="J306" s="4" t="s">
+      <c r="J306" t="s">
         <v>322</v>
       </c>
-      <c r="K306" s="4" t="s">
+      <c r="K306" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>246</v>
       </c>
@@ -24629,14 +24683,14 @@
       <c r="I307" t="s">
         <v>10</v>
       </c>
-      <c r="J307" s="4" t="s">
+      <c r="J307" t="s">
         <v>399</v>
       </c>
-      <c r="K307" s="4" t="s">
+      <c r="K307" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>247</v>
       </c>
@@ -24664,14 +24718,14 @@
       <c r="I308" t="s">
         <v>10</v>
       </c>
-      <c r="J308" s="4" t="s">
+      <c r="J308" t="s">
         <v>335</v>
       </c>
-      <c r="K308" s="4" t="s">
+      <c r="K308" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>155</v>
       </c>
@@ -24699,14 +24753,14 @@
       <c r="I309" t="s">
         <v>31</v>
       </c>
-      <c r="J309" s="4" t="s">
+      <c r="J309" t="s">
         <v>492</v>
       </c>
-      <c r="K309" s="4" t="s">
+      <c r="K309" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>248</v>
       </c>
@@ -24734,14 +24788,14 @@
       <c r="I310" t="s">
         <v>25</v>
       </c>
-      <c r="J310" s="4" t="s">
+      <c r="J310" t="s">
         <v>343</v>
       </c>
-      <c r="K310" s="4" t="s">
+      <c r="K310" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>153</v>
       </c>
@@ -24769,14 +24823,14 @@
       <c r="I311" t="s">
         <v>10</v>
       </c>
-      <c r="J311" s="4" t="s">
+      <c r="J311" t="s">
         <v>322</v>
       </c>
-      <c r="K311" s="4" t="s">
+      <c r="K311" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>249</v>
       </c>
@@ -24804,14 +24858,14 @@
       <c r="I312" t="s">
         <v>25</v>
       </c>
-      <c r="J312" s="4" t="s">
+      <c r="J312" t="s">
         <v>348</v>
       </c>
-      <c r="K312" s="4" t="s">
+      <c r="K312" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>245</v>
       </c>
@@ -24839,14 +24893,14 @@
       <c r="I313" t="s">
         <v>10</v>
       </c>
-      <c r="J313" s="4" t="s">
+      <c r="J313" t="s">
         <v>322</v>
       </c>
-      <c r="K313" s="4" t="s">
+      <c r="K313" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>250</v>
       </c>
@@ -24874,14 +24928,14 @@
       <c r="I314" t="s">
         <v>10</v>
       </c>
-      <c r="J314" s="4" t="s">
+      <c r="J314" t="s">
         <v>330</v>
       </c>
-      <c r="K314" s="4" t="s">
+      <c r="K314" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>204</v>
       </c>
@@ -24909,14 +24963,14 @@
       <c r="I315" t="s">
         <v>10</v>
       </c>
-      <c r="J315" s="4" t="s">
+      <c r="J315" t="s">
         <v>328</v>
       </c>
-      <c r="K315" s="4" t="s">
+      <c r="K315" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>207</v>
       </c>
@@ -24944,14 +24998,14 @@
       <c r="I316" t="s">
         <v>10</v>
       </c>
-      <c r="J316" s="4" t="s">
+      <c r="J316" t="s">
         <v>338</v>
       </c>
-      <c r="K316" s="4" t="s">
+      <c r="K316" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>251</v>
       </c>
@@ -24979,14 +25033,14 @@
       <c r="I317" t="s">
         <v>31</v>
       </c>
-      <c r="J317" s="4" t="s">
+      <c r="J317" t="s">
         <v>354</v>
       </c>
-      <c r="K317" s="4" t="s">
+      <c r="K317" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>252</v>
       </c>
@@ -25014,14 +25068,14 @@
       <c r="I318" t="s">
         <v>25</v>
       </c>
-      <c r="J318" s="4" t="s">
+      <c r="J318" t="s">
         <v>343</v>
       </c>
-      <c r="K318" s="4" t="s">
+      <c r="K318" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>253</v>
       </c>
@@ -25049,14 +25103,14 @@
       <c r="I319" t="s">
         <v>25</v>
       </c>
-      <c r="J319" s="4" t="s">
+      <c r="J319" t="s">
         <v>403</v>
       </c>
-      <c r="K319" s="4" t="s">
+      <c r="K319" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>254</v>
       </c>
@@ -25084,14 +25138,14 @@
       <c r="I320" t="s">
         <v>25</v>
       </c>
-      <c r="J320" s="4" t="s">
+      <c r="J320" t="s">
         <v>348</v>
       </c>
-      <c r="K320" s="4" t="s">
+      <c r="K320" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>143</v>
       </c>
@@ -25119,14 +25173,14 @@
       <c r="I321" t="s">
         <v>25</v>
       </c>
-      <c r="J321" s="4" t="s">
+      <c r="J321" t="s">
         <v>343</v>
       </c>
-      <c r="K321" s="4" t="s">
+      <c r="K321" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>255</v>
       </c>
@@ -25154,14 +25208,14 @@
       <c r="I322" t="s">
         <v>25</v>
       </c>
-      <c r="J322" s="4" t="s">
+      <c r="J322" t="s">
         <v>403</v>
       </c>
-      <c r="K322" s="4" t="s">
+      <c r="K322" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -25189,14 +25243,14 @@
       <c r="I323" t="s">
         <v>10</v>
       </c>
-      <c r="J323" s="4" t="s">
+      <c r="J323" t="s">
         <v>338</v>
       </c>
-      <c r="K323" s="4" t="s">
+      <c r="K323" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>242</v>
       </c>
@@ -25224,14 +25278,14 @@
       <c r="I324" t="s">
         <v>25</v>
       </c>
-      <c r="J324" s="4" t="s">
+      <c r="J324" t="s">
         <v>348</v>
       </c>
-      <c r="K324" s="4" t="s">
+      <c r="K324" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>256</v>
       </c>
@@ -25259,14 +25313,14 @@
       <c r="I325" t="s">
         <v>31</v>
       </c>
-      <c r="J325" s="4" t="s">
+      <c r="J325" t="s">
         <v>492</v>
       </c>
-      <c r="K325" s="4" t="s">
+      <c r="K325" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>257</v>
       </c>
@@ -25294,14 +25348,14 @@
       <c r="I326" t="s">
         <v>31</v>
       </c>
-      <c r="J326" s="4" t="s">
+      <c r="J326" t="s">
         <v>492</v>
       </c>
-      <c r="K326" s="4" t="s">
+      <c r="K326" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>258</v>
       </c>
@@ -25329,14 +25383,14 @@
       <c r="I327" t="s">
         <v>31</v>
       </c>
-      <c r="J327" s="4" t="s">
+      <c r="J327" t="s">
         <v>354</v>
       </c>
-      <c r="K327" s="4" t="s">
+      <c r="K327" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>259</v>
       </c>
@@ -25364,14 +25418,14 @@
       <c r="I328" t="s">
         <v>31</v>
       </c>
-      <c r="J328" s="4" t="s">
+      <c r="J328" t="s">
         <v>500</v>
       </c>
-      <c r="K328" s="4" t="s">
+      <c r="K328" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>260</v>
       </c>
@@ -25399,14 +25453,14 @@
       <c r="I329" t="s">
         <v>25</v>
       </c>
-      <c r="J329" s="4" t="s">
+      <c r="J329" t="s">
         <v>466</v>
       </c>
-      <c r="K329" s="4" t="s">
+      <c r="K329" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>189</v>
       </c>
@@ -25434,14 +25488,14 @@
       <c r="I330" t="s">
         <v>25</v>
       </c>
-      <c r="J330" s="4" t="s">
+      <c r="J330" t="s">
         <v>131</v>
       </c>
-      <c r="K330" s="4" t="s">
+      <c r="K330" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>261</v>
       </c>
@@ -25469,14 +25523,14 @@
       <c r="I331" t="s">
         <v>31</v>
       </c>
-      <c r="J331" s="4" t="s">
+      <c r="J331" t="s">
         <v>599</v>
       </c>
-      <c r="K331" s="4" t="s">
+      <c r="K331" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>262</v>
       </c>
@@ -25504,14 +25558,14 @@
       <c r="I332" t="s">
         <v>25</v>
       </c>
-      <c r="J332" s="4" t="s">
+      <c r="J332" t="s">
         <v>348</v>
       </c>
-      <c r="K332" s="4" t="s">
+      <c r="K332" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>263</v>
       </c>
@@ -25539,14 +25593,14 @@
       <c r="I333" t="s">
         <v>25</v>
       </c>
-      <c r="J333" s="4" t="s">
+      <c r="J333" t="s">
         <v>403</v>
       </c>
-      <c r="K333" s="4" t="s">
+      <c r="K333" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>264</v>
       </c>
@@ -25574,14 +25628,14 @@
       <c r="I334" t="s">
         <v>31</v>
       </c>
-      <c r="J334" s="4" t="s">
+      <c r="J334" t="s">
         <v>602</v>
       </c>
-      <c r="K334" s="4" t="s">
+      <c r="K334" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>265</v>
       </c>
@@ -25609,14 +25663,14 @@
       <c r="I335" t="s">
         <v>25</v>
       </c>
-      <c r="J335" s="4" t="s">
+      <c r="J335" t="s">
         <v>466</v>
       </c>
-      <c r="K335" s="4" t="s">
+      <c r="K335" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>266</v>
       </c>
@@ -25644,14 +25698,14 @@
       <c r="I336" t="s">
         <v>10</v>
       </c>
-      <c r="J336" s="4" t="s">
+      <c r="J336" t="s">
         <v>326</v>
       </c>
-      <c r="K336" s="4" t="s">
+      <c r="K336" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>177</v>
       </c>
@@ -25679,14 +25733,14 @@
       <c r="I337" t="s">
         <v>10</v>
       </c>
-      <c r="J337" s="4" t="s">
+      <c r="J337" t="s">
         <v>324</v>
       </c>
-      <c r="K337" s="4" t="s">
+      <c r="K337" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>267</v>
       </c>
@@ -25714,14 +25768,14 @@
       <c r="I338" t="s">
         <v>10</v>
       </c>
-      <c r="J338" s="4" t="s">
+      <c r="J338" t="s">
         <v>338</v>
       </c>
-      <c r="K338" s="4" t="s">
+      <c r="K338" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>245</v>
       </c>
@@ -25749,14 +25803,14 @@
       <c r="I339" t="s">
         <v>10</v>
       </c>
-      <c r="J339" s="4" t="s">
+      <c r="J339" t="s">
         <v>322</v>
       </c>
-      <c r="K339" s="4" t="s">
+      <c r="K339" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>266</v>
       </c>
@@ -25784,14 +25838,14 @@
       <c r="I340" t="s">
         <v>10</v>
       </c>
-      <c r="J340" s="4" t="s">
+      <c r="J340" t="s">
         <v>326</v>
       </c>
-      <c r="K340" s="4" t="s">
+      <c r="K340" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>268</v>
       </c>
@@ -25819,14 +25873,14 @@
       <c r="I341" t="s">
         <v>25</v>
       </c>
-      <c r="J341" s="4" t="s">
+      <c r="J341" t="s">
         <v>343</v>
       </c>
-      <c r="K341" s="4" t="s">
+      <c r="K341" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>269</v>
       </c>
@@ -25854,14 +25908,14 @@
       <c r="I342" t="s">
         <v>10</v>
       </c>
-      <c r="J342" s="4" t="s">
+      <c r="J342" t="s">
         <v>326</v>
       </c>
-      <c r="K342" s="4" t="s">
+      <c r="K342" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>270</v>
       </c>
@@ -25889,14 +25943,14 @@
       <c r="I343" t="s">
         <v>25</v>
       </c>
-      <c r="J343" s="4" t="s">
+      <c r="J343" t="s">
         <v>466</v>
       </c>
-      <c r="K343" s="4" t="s">
+      <c r="K343" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>131</v>
       </c>
@@ -25924,14 +25978,14 @@
       <c r="I344" t="s">
         <v>25</v>
       </c>
-      <c r="J344" s="4" t="s">
+      <c r="J344" t="s">
         <v>131</v>
       </c>
-      <c r="K344" s="4" t="s">
+      <c r="K344" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>271</v>
       </c>
@@ -25959,14 +26013,14 @@
       <c r="I345" t="s">
         <v>25</v>
       </c>
-      <c r="J345" s="4" t="s">
+      <c r="J345" t="s">
         <v>348</v>
       </c>
-      <c r="K345" s="4" t="s">
+      <c r="K345" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>272</v>
       </c>
@@ -25994,14 +26048,14 @@
       <c r="I346" t="s">
         <v>25</v>
       </c>
-      <c r="J346" s="4" t="s">
+      <c r="J346" t="s">
         <v>343</v>
       </c>
-      <c r="K346" s="4" t="s">
+      <c r="K346" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>273</v>
       </c>
@@ -26029,14 +26083,14 @@
       <c r="I347" t="s">
         <v>25</v>
       </c>
-      <c r="J347" s="4" t="s">
+      <c r="J347" t="s">
         <v>403</v>
       </c>
-      <c r="K347" s="4" t="s">
+      <c r="K347" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>274</v>
       </c>
@@ -26064,14 +26118,14 @@
       <c r="I348" t="s">
         <v>10</v>
       </c>
-      <c r="J348" s="4" t="s">
+      <c r="J348" t="s">
         <v>326</v>
       </c>
-      <c r="K348" s="4" t="s">
+      <c r="K348" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>275</v>
       </c>
@@ -26099,14 +26153,14 @@
       <c r="I349" t="s">
         <v>10</v>
       </c>
-      <c r="J349" s="4" t="s">
+      <c r="J349" t="s">
         <v>330</v>
       </c>
-      <c r="K349" s="4" t="s">
+      <c r="K349" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>276</v>
       </c>
@@ -26134,14 +26188,14 @@
       <c r="I350" t="s">
         <v>10</v>
       </c>
-      <c r="J350" s="4" t="s">
+      <c r="J350" t="s">
         <v>330</v>
       </c>
-      <c r="K350" s="4" t="s">
+      <c r="K350" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>277</v>
       </c>
@@ -26169,14 +26223,14 @@
       <c r="I351" t="s">
         <v>31</v>
       </c>
-      <c r="J351" s="4" t="s">
+      <c r="J351" t="s">
         <v>350</v>
       </c>
-      <c r="K351" s="4" t="s">
+      <c r="K351" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>278</v>
       </c>
@@ -26204,14 +26258,14 @@
       <c r="I352" t="s">
         <v>25</v>
       </c>
-      <c r="J352" s="4" t="s">
+      <c r="J352" t="s">
         <v>466</v>
       </c>
-      <c r="K352" s="4" t="s">
+      <c r="K352" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>143</v>
       </c>
@@ -26239,14 +26293,14 @@
       <c r="I353" t="s">
         <v>25</v>
       </c>
-      <c r="J353" s="4" t="s">
+      <c r="J353" t="s">
         <v>343</v>
       </c>
-      <c r="K353" s="4" t="s">
+      <c r="K353" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>279</v>
       </c>
@@ -26274,14 +26328,14 @@
       <c r="I354" t="s">
         <v>25</v>
       </c>
-      <c r="J354" s="4" t="s">
+      <c r="J354" t="s">
         <v>348</v>
       </c>
-      <c r="K354" s="4" t="s">
+      <c r="K354" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>253</v>
       </c>
@@ -26309,14 +26363,14 @@
       <c r="I355" t="s">
         <v>25</v>
       </c>
-      <c r="J355" s="4" t="s">
+      <c r="J355" t="s">
         <v>403</v>
       </c>
-      <c r="K355" s="4" t="s">
+      <c r="K355" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>280</v>
       </c>
@@ -26344,14 +26398,14 @@
       <c r="I356" t="s">
         <v>31</v>
       </c>
-      <c r="J356" s="4" t="s">
+      <c r="J356" t="s">
         <v>352</v>
       </c>
-      <c r="K356" s="4" t="s">
+      <c r="K356" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>281</v>
       </c>
@@ -26379,14 +26433,14 @@
       <c r="I357" t="s">
         <v>31</v>
       </c>
-      <c r="J357" s="4" t="s">
+      <c r="J357" t="s">
         <v>409</v>
       </c>
-      <c r="K357" s="4" t="s">
+      <c r="K357" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>282</v>
       </c>
@@ -26414,14 +26468,14 @@
       <c r="I358" t="s">
         <v>25</v>
       </c>
-      <c r="J358" s="4" t="s">
+      <c r="J358" t="s">
         <v>343</v>
       </c>
-      <c r="K358" s="4" t="s">
+      <c r="K358" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>283</v>
       </c>
@@ -26449,14 +26503,14 @@
       <c r="I359" t="s">
         <v>25</v>
       </c>
-      <c r="J359" s="4" t="s">
+      <c r="J359" t="s">
         <v>348</v>
       </c>
-      <c r="K359" s="4" t="s">
+      <c r="K359" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>137</v>
       </c>
@@ -26484,14 +26538,14 @@
       <c r="I360" t="s">
         <v>10</v>
       </c>
-      <c r="J360" s="4" t="s">
+      <c r="J360" t="s">
         <v>324</v>
       </c>
-      <c r="K360" s="4" t="s">
+      <c r="K360" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>284</v>
       </c>
@@ -26519,14 +26573,14 @@
       <c r="I361" t="s">
         <v>10</v>
       </c>
-      <c r="J361" s="4" t="s">
+      <c r="J361" t="s">
         <v>399</v>
       </c>
-      <c r="K361" s="4" t="s">
+      <c r="K361" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>285</v>
       </c>
@@ -26554,14 +26608,14 @@
       <c r="I362" t="s">
         <v>10</v>
       </c>
-      <c r="J362" s="4" t="s">
+      <c r="J362" t="s">
         <v>330</v>
       </c>
-      <c r="K362" s="4" t="s">
+      <c r="K362" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>286</v>
       </c>
@@ -26589,14 +26643,14 @@
       <c r="I363" t="s">
         <v>10</v>
       </c>
-      <c r="J363" s="4" t="s">
+      <c r="J363" t="s">
         <v>401</v>
       </c>
-      <c r="K363" s="4" t="s">
+      <c r="K363" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>287</v>
       </c>
@@ -26624,14 +26678,14 @@
       <c r="I364" t="s">
         <v>10</v>
       </c>
-      <c r="J364" s="4" t="s">
+      <c r="J364" t="s">
         <v>322</v>
       </c>
-      <c r="K364" s="4" t="s">
+      <c r="K364" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>288</v>
       </c>
@@ -26659,14 +26713,14 @@
       <c r="I365" t="s">
         <v>10</v>
       </c>
-      <c r="J365" s="4" t="s">
+      <c r="J365" t="s">
         <v>322</v>
       </c>
-      <c r="K365" s="4" t="s">
+      <c r="K365" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>289</v>
       </c>
@@ -26694,14 +26748,14 @@
       <c r="I366" t="s">
         <v>10</v>
       </c>
-      <c r="J366" s="4" t="s">
+      <c r="J366" t="s">
         <v>322</v>
       </c>
-      <c r="K366" s="4" t="s">
+      <c r="K366" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>290</v>
       </c>
@@ -26729,14 +26783,14 @@
       <c r="I367" t="s">
         <v>10</v>
       </c>
-      <c r="J367" s="4" t="s">
+      <c r="J367" t="s">
         <v>335</v>
       </c>
-      <c r="K367" s="4" t="s">
+      <c r="K367" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>291</v>
       </c>
@@ -26764,14 +26818,14 @@
       <c r="I368" t="s">
         <v>10</v>
       </c>
-      <c r="J368" s="4" t="s">
+      <c r="J368" t="s">
         <v>338</v>
       </c>
-      <c r="K368" s="4" t="s">
+      <c r="K368" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>247</v>
       </c>
@@ -26799,14 +26853,14 @@
       <c r="I369" t="s">
         <v>10</v>
       </c>
-      <c r="J369" s="4" t="s">
+      <c r="J369" t="s">
         <v>335</v>
       </c>
-      <c r="K369" s="4" t="s">
+      <c r="K369" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>292</v>
       </c>
@@ -26834,14 +26888,14 @@
       <c r="I370" t="s">
         <v>10</v>
       </c>
-      <c r="J370" s="4" t="s">
+      <c r="J370" t="s">
         <v>330</v>
       </c>
-      <c r="K370" s="4" t="s">
+      <c r="K370" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>293</v>
       </c>
@@ -26869,14 +26923,14 @@
       <c r="I371" t="s">
         <v>31</v>
       </c>
-      <c r="J371" s="4" t="s">
+      <c r="J371" t="s">
         <v>350</v>
       </c>
-      <c r="K371" s="4" t="s">
+      <c r="K371" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>294</v>
       </c>
@@ -26904,14 +26958,14 @@
       <c r="I372" t="s">
         <v>25</v>
       </c>
-      <c r="J372" s="4" t="s">
+      <c r="J372" t="s">
         <v>403</v>
       </c>
-      <c r="K372" s="4" t="s">
+      <c r="K372" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>295</v>
       </c>
@@ -26939,14 +26993,14 @@
       <c r="I373" t="s">
         <v>25</v>
       </c>
-      <c r="J373" s="4" t="s">
+      <c r="J373" t="s">
         <v>403</v>
       </c>
-      <c r="K373" s="4" t="s">
+      <c r="K373" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>296</v>
       </c>
@@ -26974,14 +27028,14 @@
       <c r="I374" t="s">
         <v>10</v>
       </c>
-      <c r="J374" s="4" t="s">
+      <c r="J374" t="s">
         <v>326</v>
       </c>
-      <c r="K374" s="4" t="s">
+      <c r="K374" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>297</v>
       </c>
@@ -27009,14 +27063,14 @@
       <c r="I375" t="s">
         <v>10</v>
       </c>
-      <c r="J375" s="4" t="s">
+      <c r="J375" t="s">
         <v>380</v>
       </c>
-      <c r="K375" s="4" t="s">
+      <c r="K375" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>298</v>
       </c>
@@ -27044,14 +27098,14 @@
       <c r="I376" t="s">
         <v>25</v>
       </c>
-      <c r="J376" s="4" t="s">
+      <c r="J376" t="s">
         <v>637</v>
       </c>
-      <c r="K376" s="4" t="s">
+      <c r="K376" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>265</v>
       </c>
@@ -27079,14 +27133,14 @@
       <c r="I377" t="s">
         <v>25</v>
       </c>
-      <c r="J377" s="4" t="s">
+      <c r="J377" t="s">
         <v>466</v>
       </c>
-      <c r="K377" s="4" t="s">
+      <c r="K377" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>143</v>
       </c>
@@ -27114,14 +27168,14 @@
       <c r="I378" t="s">
         <v>25</v>
       </c>
-      <c r="J378" s="4" t="s">
+      <c r="J378" t="s">
         <v>343</v>
       </c>
-      <c r="K378" s="4" t="s">
+      <c r="K378" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>130</v>
       </c>
@@ -27149,14 +27203,14 @@
       <c r="I379" t="s">
         <v>25</v>
       </c>
-      <c r="J379" s="4" t="s">
+      <c r="J379" t="s">
         <v>466</v>
       </c>
-      <c r="K379" s="4" t="s">
+      <c r="K379" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>299</v>
       </c>
@@ -27184,14 +27238,14 @@
       <c r="I380" t="s">
         <v>25</v>
       </c>
-      <c r="J380" s="4" t="s">
+      <c r="J380" t="s">
         <v>466</v>
       </c>
-      <c r="K380" s="4" t="s">
+      <c r="K380" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>300</v>
       </c>
@@ -27219,14 +27273,14 @@
       <c r="I381" t="s">
         <v>25</v>
       </c>
-      <c r="J381" s="4" t="s">
+      <c r="J381" t="s">
         <v>348</v>
       </c>
-      <c r="K381" s="4" t="s">
+      <c r="K381" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>301</v>
       </c>
@@ -27254,14 +27308,14 @@
       <c r="I382" t="s">
         <v>10</v>
       </c>
-      <c r="J382" s="4" t="s">
+      <c r="J382" t="s">
         <v>324</v>
       </c>
-      <c r="K382" s="4" t="s">
+      <c r="K382" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>302</v>
       </c>
@@ -27289,14 +27343,14 @@
       <c r="I383" t="s">
         <v>10</v>
       </c>
-      <c r="J383" s="4" t="s">
+      <c r="J383" t="s">
         <v>399</v>
       </c>
-      <c r="K383" s="4" t="s">
+      <c r="K383" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>303</v>
       </c>
@@ -27324,14 +27378,14 @@
       <c r="I384" t="s">
         <v>10</v>
       </c>
-      <c r="J384" s="4" t="s">
+      <c r="J384" t="s">
         <v>401</v>
       </c>
-      <c r="K384" s="4" t="s">
+      <c r="K384" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>304</v>
       </c>
@@ -27359,14 +27413,14 @@
       <c r="I385" t="s">
         <v>10</v>
       </c>
-      <c r="J385" s="4" t="s">
+      <c r="J385" t="s">
         <v>330</v>
       </c>
-      <c r="K385" s="4" t="s">
+      <c r="K385" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>305</v>
       </c>
@@ -27394,14 +27448,14 @@
       <c r="I386" t="s">
         <v>25</v>
       </c>
-      <c r="J386" s="4" t="s">
+      <c r="J386" t="s">
         <v>343</v>
       </c>
-      <c r="K386" s="4" t="s">
+      <c r="K386" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>306</v>
       </c>
@@ -27429,14 +27483,14 @@
       <c r="I387" t="s">
         <v>10</v>
       </c>
-      <c r="J387" s="4" t="s">
+      <c r="J387" t="s">
         <v>338</v>
       </c>
-      <c r="K387" s="4" t="s">
+      <c r="K387" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>307</v>
       </c>
@@ -27464,14 +27518,14 @@
       <c r="I388" t="s">
         <v>10</v>
       </c>
-      <c r="J388" s="4" t="s">
+      <c r="J388" t="s">
         <v>322</v>
       </c>
-      <c r="K388" s="4" t="s">
+      <c r="K388" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>308</v>
       </c>
@@ -27499,14 +27553,14 @@
       <c r="I389" t="s">
         <v>10</v>
       </c>
-      <c r="J389" s="4" t="s">
+      <c r="J389" t="s">
         <v>330</v>
       </c>
-      <c r="K389" s="4" t="s">
+      <c r="K389" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>309</v>
       </c>
@@ -27534,14 +27588,14 @@
       <c r="I390" t="s">
         <v>31</v>
       </c>
-      <c r="J390" s="4" t="s">
+      <c r="J390" t="s">
         <v>492</v>
       </c>
-      <c r="K390" s="4" t="s">
+      <c r="K390" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>310</v>
       </c>
@@ -27569,14 +27623,14 @@
       <c r="I391" t="s">
         <v>10</v>
       </c>
-      <c r="J391" s="4" t="s">
+      <c r="J391" t="s">
         <v>338</v>
       </c>
-      <c r="K391" s="4" t="s">
+      <c r="K391" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>311</v>
       </c>
@@ -27604,14 +27658,14 @@
       <c r="I392" t="s">
         <v>10</v>
       </c>
-      <c r="J392" s="4" t="s">
+      <c r="J392" t="s">
         <v>330</v>
       </c>
-      <c r="K392" s="4" t="s">
+      <c r="K392" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>312</v>
       </c>
@@ -27639,10 +27693,10 @@
       <c r="I393" t="s">
         <v>10</v>
       </c>
-      <c r="J393" s="4" t="s">
+      <c r="J393" t="s">
         <v>362</v>
       </c>
-      <c r="K393" s="4" t="s">
+      <c r="K393" t="s">
         <v>652</v>
       </c>
     </row>
@@ -27659,17 +27713,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4A797A-1F8C-437D-BCFE-E7BC9AE6E956}">
   <dimension ref="C6:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.8125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>314</v>
       </c>
@@ -27677,7 +27731,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>70</v>
       </c>
@@ -27685,7 +27739,7 @@
         <v>17.689655172413794</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>71</v>
       </c>
@@ -27693,7 +27747,7 @@
         <v>21.111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>72</v>
       </c>
@@ -27701,7 +27755,7 @@
         <v>18.714285714285715</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>73</v>
       </c>
@@ -27709,7 +27763,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>74</v>
       </c>
@@ -27717,7 +27771,7 @@
         <v>22.76923076923077</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>75</v>
       </c>
@@ -27725,7 +27779,7 @@
         <v>20.266666666666666</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>76</v>
       </c>
@@ -27733,7 +27787,7 @@
         <v>21.573529411764707</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>77</v>
       </c>
@@ -27741,7 +27795,7 @@
         <v>23.375</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>78</v>
       </c>
@@ -27749,7 +27803,7 @@
         <v>24.061111111111114</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>79</v>
       </c>
@@ -27757,7 +27811,7 @@
         <v>25.093103448275851</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2">
         <v>80</v>
       </c>
@@ -27765,7 +27819,7 @@
         <v>33.803703703703704</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>81</v>
       </c>
@@ -27773,7 +27827,7 @@
         <v>30.185714285714287</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>82</v>
       </c>
@@ -27781,7 +27835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>315</v>
       </c>
@@ -27800,21 +27854,21 @@
   <dimension ref="B5:C59"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.8125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>314</v>
       </c>
@@ -27822,7 +27876,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>70</v>
       </c>
@@ -27830,7 +27884,7 @@
         <v>147.82758620689654</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>71</v>
       </c>
@@ -27838,7 +27892,7 @@
         <v>107.03703703703704</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>72</v>
       </c>
@@ -27846,7 +27900,7 @@
         <v>120.17857142857143</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>73</v>
       </c>
@@ -27854,7 +27908,7 @@
         <v>130.47499999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>74</v>
       </c>
@@ -27862,7 +27916,7 @@
         <v>94.230769230769226</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>75</v>
       </c>
@@ -27870,7 +27924,7 @@
         <v>101.06666666666666</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>76</v>
       </c>
@@ -27878,7 +27932,7 @@
         <v>101.11764705882354</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>77</v>
       </c>
@@ -27886,7 +27940,7 @@
         <v>105.07142857142857</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>78</v>
       </c>
@@ -27894,7 +27948,7 @@
         <v>99.694444444444443</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>79</v>
       </c>
@@ -27902,7 +27956,7 @@
         <v>101.20689655172414</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>80</v>
       </c>
@@ -27910,7 +27964,7 @@
         <v>77.481481481481481</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>81</v>
       </c>
@@ -27918,7 +27972,7 @@
         <v>81.035714285714292</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>82</v>
       </c>
@@ -27926,7 +27980,7 @@
         <v>81.466666666666669</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>315</v>
       </c>
@@ -27934,7 +27988,7 @@
         <v>104.46938775510205</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>314</v>
       </c>
@@ -27942,7 +27996,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>70</v>
       </c>
@@ -27950,7 +28004,7 @@
         <v>12.948275862068966</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>71</v>
       </c>
@@ -27958,7 +28012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>72</v>
       </c>
@@ -27966,7 +28020,7 @@
         <v>15.125</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>73</v>
       </c>
@@ -27974,7 +28028,7 @@
         <v>14.3125</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>74</v>
       </c>
@@ -27982,7 +28036,7 @@
         <v>16.173076923076923</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>75</v>
       </c>
@@ -27990,7 +28044,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>76</v>
       </c>
@@ -27998,7 +28052,7 @@
         <v>15.941176470588232</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>77</v>
       </c>
@@ -28006,7 +28060,7 @@
         <v>15.435714285714285</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>78</v>
       </c>
@@ -28014,7 +28068,7 @@
         <v>15.805555555555552</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>79</v>
       </c>
@@ -28022,7 +28076,7 @@
         <v>15.813793103448274</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>80</v>
       </c>
@@ -28030,7 +28084,7 @@
         <v>17.018518518518519</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>81</v>
       </c>
@@ -28038,7 +28092,7 @@
         <v>16.325000000000006</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>82</v>
       </c>
@@ -28046,7 +28100,7 @@
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>315</v>
       </c>
@@ -28054,7 +28108,7 @@
         <v>15.541326530612228</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>314</v>
       </c>
@@ -28062,7 +28116,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>70</v>
       </c>
@@ -28070,7 +28124,7 @@
         <v>281.41379310344826</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>71</v>
       </c>
@@ -28078,7 +28132,7 @@
         <v>213.88888888888889</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>72</v>
       </c>
@@ -28086,7 +28140,7 @@
         <v>218.375</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>73</v>
       </c>
@@ -28094,7 +28148,7 @@
         <v>256.875</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>74</v>
       </c>
@@ -28102,7 +28156,7 @@
         <v>170.65384615384616</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>75</v>
       </c>
@@ -28110,7 +28164,7 @@
         <v>205.53333333333333</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>76</v>
       </c>
@@ -28118,7 +28172,7 @@
         <v>197.79411764705881</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>77</v>
       </c>
@@ -28126,7 +28180,7 @@
         <v>191.39285714285714</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>78</v>
       </c>
@@ -28134,7 +28188,7 @@
         <v>177.80555555555554</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>79</v>
       </c>
@@ -28142,7 +28196,7 @@
         <v>206.68965517241378</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>80</v>
       </c>
@@ -28150,7 +28204,7 @@
         <v>116.07407407407408</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>81</v>
       </c>
@@ -28158,7 +28212,7 @@
         <v>136.57142857142858</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>82</v>
       </c>
@@ -28166,7 +28220,7 @@
         <v>128.13333333333333</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>315</v>
       </c>
@@ -28184,18 +28238,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304D6E0F-77E5-45BE-BF9F-6FC21FC9B075}">
   <dimension ref="B5:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.8125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.01953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>314</v>
       </c>
@@ -28203,347 +28257,347 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>70</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>71</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>72</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>73</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>74</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>75</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>76</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>77</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>78</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>79</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>80</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>81</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>82</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>70</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>71</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>72</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>73</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>74</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>75</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>76</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>77</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>78</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>79</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>80</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>81</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>82</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>70</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>71</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>72</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>73</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>74</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>75</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>76</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>77</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>78</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>79</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>80</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>81</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>82</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>392</v>
       </c>
     </row>

--- a/Excel Carros Informações Versão Atualizada.xlsx
+++ b/Excel Carros Informações Versão Atualizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ipbejapt-my.sharepoint.com/personal/23919_stu_ipbeja_pt/Documents/Relatórios-Trabalhos/3º ano/1º Semestre/SI/TG1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="871" documentId="8_{9518B53B-B95E-491D-8120-49B2E10E8827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB5455C-9A29-4ED2-ADC7-8F956729DBA8}"/>
+  <xr:revisionPtr revIDLastSave="926" documentId="8_{9518B53B-B95E-491D-8120-49B2E10E8827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BEFBDD-D3B2-467D-B463-85807D9C46C5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{7BD9BC15-55B9-47D1-AC59-4301D45DE72F}"/>
   </bookViews>
@@ -13345,11 +13345,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Aceleração</a:t>
+                  <a:t>Aceleração de 0-60</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (Segundos)</a:t>
+                  <a:t> milhas por hora  (Segundos)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -16998,7 +16998,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:colOff>510541</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
@@ -17076,7 +17076,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>512669</xdr:colOff>
+      <xdr:colOff>512670</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
@@ -17277,8 +17277,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Ano do Modelo">
@@ -17301,7 +17301,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17355,8 +17355,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>89807</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Marca">
@@ -17379,7 +17379,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17433,8 +17433,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>21770</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="País de Origem">
@@ -17457,7 +17457,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17552,8 +17552,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>188819</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Ano do Modelo 1">
@@ -17576,7 +17576,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17630,8 +17630,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Marca 1">
@@ -17654,7 +17654,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17708,8 +17708,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>179291</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="País de Origem 1">
@@ -17732,7 +17732,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18049,6 +18049,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24729,7 +24733,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="31">
         <item x="3"/>
         <item x="11"/>
@@ -30656,7 +30660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9012A2-EF33-4757-9748-3DA9B16A8308}">
   <dimension ref="A1:K393"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -44443,14 +44447,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692FC03A-49D7-4E77-88FF-CBC235FE6192}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -44986,7 +44990,7 @@
       <c r="B5" s="2">
         <v>70</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>147.82758620689654</v>
       </c>
     </row>
@@ -44994,7 +44998,7 @@
       <c r="B6" s="2">
         <v>71</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>107.03703703703704</v>
       </c>
     </row>
@@ -45002,7 +45006,7 @@
       <c r="B7" s="2">
         <v>72</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>120.17857142857143</v>
       </c>
     </row>
@@ -45010,7 +45014,7 @@
       <c r="B8" s="2">
         <v>73</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>130.47499999999999</v>
       </c>
     </row>
@@ -45018,7 +45022,7 @@
       <c r="B9" s="2">
         <v>74</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>94.230769230769226</v>
       </c>
     </row>
@@ -45026,7 +45030,7 @@
       <c r="B10" s="2">
         <v>75</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>101.06666666666666</v>
       </c>
     </row>
@@ -45034,7 +45038,7 @@
       <c r="B11" s="2">
         <v>76</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>101.11764705882354</v>
       </c>
     </row>
@@ -45042,7 +45046,7 @@
       <c r="B12" s="2">
         <v>77</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>105.07142857142857</v>
       </c>
     </row>
@@ -45050,7 +45054,7 @@
       <c r="B13" s="2">
         <v>78</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>99.694444444444443</v>
       </c>
     </row>
@@ -45058,7 +45062,7 @@
       <c r="B14" s="2">
         <v>79</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>101.20689655172414</v>
       </c>
     </row>
@@ -45066,7 +45070,7 @@
       <c r="B15" s="2">
         <v>80</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>77.481481481481481</v>
       </c>
     </row>
@@ -45074,7 +45078,7 @@
       <c r="B16" s="2">
         <v>81</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>81.035714285714292</v>
       </c>
     </row>
@@ -45082,7 +45086,7 @@
       <c r="B17" s="2">
         <v>82</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>81.466666666666669</v>
       </c>
     </row>
@@ -45090,7 +45094,7 @@
       <c r="B18" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>104.46938775510205</v>
       </c>
     </row>
@@ -45112,7 +45116,7 @@
   <dimension ref="C2:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45176,7 +45180,7 @@
       <c r="C5" s="2">
         <v>70</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>12.948275862068966</v>
       </c>
     </row>
@@ -45184,7 +45188,7 @@
       <c r="C6" s="2">
         <v>71</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>15</v>
       </c>
     </row>
@@ -45192,7 +45196,7 @@
       <c r="C7" s="2">
         <v>72</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>15.125</v>
       </c>
     </row>
@@ -45200,7 +45204,7 @@
       <c r="C8" s="2">
         <v>73</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>14.3125</v>
       </c>
     </row>
@@ -45208,7 +45212,7 @@
       <c r="C9" s="2">
         <v>74</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>16.173076923076923</v>
       </c>
     </row>
@@ -45216,7 +45220,7 @@
       <c r="C10" s="2">
         <v>75</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>16.05</v>
       </c>
     </row>
@@ -45224,7 +45228,7 @@
       <c r="C11" s="2">
         <v>76</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>15.941176470588232</v>
       </c>
     </row>
@@ -45232,7 +45236,7 @@
       <c r="C12" s="2">
         <v>77</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>15.435714285714285</v>
       </c>
     </row>
@@ -45240,7 +45244,7 @@
       <c r="C13" s="2">
         <v>78</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>15.805555555555552</v>
       </c>
     </row>
@@ -45248,7 +45252,7 @@
       <c r="C14" s="2">
         <v>79</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>15.813793103448274</v>
       </c>
     </row>
@@ -45256,7 +45260,7 @@
       <c r="C15" s="2">
         <v>80</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>17.018518518518519</v>
       </c>
     </row>
@@ -45264,7 +45268,7 @@
       <c r="C16" s="2">
         <v>81</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>16.325000000000006</v>
       </c>
     </row>
@@ -45272,7 +45276,7 @@
       <c r="C17" s="2">
         <v>82</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>16.510000000000002</v>
       </c>
     </row>
@@ -45280,7 +45284,7 @@
       <c r="C18" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>15.541326530612228</v>
       </c>
     </row>

--- a/Excel Carros Informações Versão Atualizada.xlsx
+++ b/Excel Carros Informações Versão Atualizada.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ipbejapt-my.sharepoint.com/personal/23919_stu_ipbeja_pt/Documents/Relatórios-Trabalhos/3º ano/1º Semestre/SI/TG1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1556" documentId="8_{9518B53B-B95E-491D-8120-49B2E10E8827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040A046F-03D4-4B51-9691-5C4CAEF2C0BB}"/>
+  <xr:revisionPtr revIDLastSave="1577" documentId="8_{9518B53B-B95E-491D-8120-49B2E10E8827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7726AE5B-830B-4386-AD80-DCD3B136588F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="821" activeTab="1" xr2:uid="{7BD9BC15-55B9-47D1-AC59-4301D45DE72F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="821" xr2:uid="{7BD9BC15-55B9-47D1-AC59-4301D45DE72F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Automobile" sheetId="4" r:id="rId1"/>
+    <sheet name="Informações Carros e Gasolina" sheetId="4" r:id="rId1"/>
     <sheet name="Milhas Por Galão" sheetId="11" r:id="rId2"/>
     <sheet name="Cavalagem" sheetId="8" r:id="rId3"/>
     <sheet name="Aceleração" sheetId="9" r:id="rId4"/>
     <sheet name="Número de Veículos" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_2" localSheetId="0" hidden="1">Automobile!$A$1:$K$393</definedName>
+    <definedName name="DadosExternos_2" localSheetId="0" hidden="1">'Informações Carros e Gasolina'!$A$1:$K$393</definedName>
     <definedName name="SegmentaçãoDeDados_Ano_do_Modelo">#N/A</definedName>
     <definedName name="SegmentaçãoDeDados_Ano_do_Modelo1">#N/A</definedName>
     <definedName name="SegmentaçãoDeDados_Ano_do_Modelo2">#N/A</definedName>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="83" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -2759,6 +2759,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Milhas Por Galão'!$B$5:$B$18</c:f>
@@ -3245,6 +3259,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3301,6 +3318,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3357,6 +3377,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3413,6 +3436,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3469,6 +3495,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3525,6 +3554,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3581,6 +3613,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3637,6 +3672,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3693,6 +3731,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3749,6 +3790,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3805,6 +3849,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4121,6 +4168,72 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6F66-4F8C-A14D-84BCFB882889}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-6F66-4F8C-A14D-84BCFB882889}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="8"/>
@@ -4223,6 +4336,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Milhas Por Galão'!$T$3:$T$16</c:f>
@@ -12832,6 +12959,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Cavalagem!$B$5:$B$18</c:f>
@@ -16233,6 +16374,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Número de Veículos'!$B$5:$B$18</c:f>
@@ -19415,8 +19570,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>163050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Ano do Modelo 3">
@@ -19439,7 +19594,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19493,8 +19648,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="País de Origem 3">
@@ -19517,7 +19672,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19571,8 +19726,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>170891</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Marca 3">
@@ -19595,7 +19750,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -20498,6 +20653,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26106,7 +26265,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56B8E4A4-129B-4A17-8325-BFCD85053C0C}" name="Tabela Dinâmica3" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56B8E4A4-129B-4A17-8325-BFCD85053C0C}" name="Tabela Dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="T2:U16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -26240,7 +26399,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7072776-F1D9-4AB6-9014-58EBC39F2A7B}" name="Tabela Dinâmica2" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7072776-F1D9-4AB6-9014-58EBC39F2A7B}" name="Tabela Dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="B4:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -26409,7 +26568,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFB83391-01D7-4028-AB14-EB71BE961C95}" name="Tabela Dinâmica5" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFB83391-01D7-4028-AB14-EB71BE961C95}" name="Tabela Dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B4:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -29990,7 +30149,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CD3176F-C7D3-41C6-83D3-215ED865F1C1}" name="Tabela Dinâmica6" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CD3176F-C7D3-41C6-83D3-215ED865F1C1}" name="Tabela Dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="C4:D18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -30663,7 +30822,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{544EB84B-5FAB-4154-A479-722798386EA3}" name="Tabela Dinâmica1" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{544EB84B-5FAB-4154-A479-722798386EA3}" name="Tabela Dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B4:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -31759,7 +31918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9012A2-EF33-4757-9748-3DA9B16A8308}">
   <dimension ref="A1:L393"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -31851,7 +32010,7 @@
       <c r="K2" t="s">
         <v>303</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <v>0.36</v>
       </c>
     </row>
@@ -31889,7 +32048,7 @@
       <c r="K3" t="s">
         <v>305</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>0.36</v>
       </c>
     </row>
@@ -31927,7 +32086,7 @@
       <c r="K4" t="s">
         <v>307</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>0.36</v>
       </c>
     </row>
@@ -31965,7 +32124,7 @@
       <c r="K5" t="s">
         <v>309</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>0.36</v>
       </c>
     </row>
@@ -32003,7 +32162,7 @@
       <c r="K6" t="s">
         <v>311</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>0.36</v>
       </c>
     </row>
@@ -32041,7 +32200,7 @@
       <c r="K7" t="s">
         <v>312</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>0.36</v>
       </c>
     </row>
@@ -32079,7 +32238,7 @@
       <c r="K8" t="s">
         <v>313</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>0.36</v>
       </c>
     </row>
@@ -32117,7 +32276,7 @@
       <c r="K9" t="s">
         <v>314</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>0.36</v>
       </c>
     </row>
@@ -32155,7 +32314,7 @@
       <c r="K10" t="s">
         <v>316</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>0.36</v>
       </c>
     </row>
@@ -32193,7 +32352,7 @@
       <c r="K11" t="s">
         <v>317</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>0.36</v>
       </c>
     </row>
@@ -32231,7 +32390,7 @@
       <c r="K12" t="s">
         <v>319</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>0.36</v>
       </c>
     </row>
@@ -32269,7 +32428,7 @@
       <c r="K13" t="s">
         <v>320</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>0.36</v>
       </c>
     </row>
@@ -32307,7 +32466,7 @@
       <c r="K14" t="s">
         <v>321</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>0.36</v>
       </c>
     </row>
@@ -32345,7 +32504,7 @@
       <c r="K15" t="s">
         <v>322</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15">
         <v>0.36</v>
       </c>
     </row>
@@ -32383,7 +32542,7 @@
       <c r="K16" t="s">
         <v>324</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>0.36</v>
       </c>
     </row>
@@ -32421,7 +32580,7 @@
       <c r="K17" t="s">
         <v>325</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17">
         <v>0.36</v>
       </c>
     </row>
@@ -32459,7 +32618,7 @@
       <c r="K18" t="s">
         <v>326</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>0.36</v>
       </c>
     </row>
@@ -32497,7 +32656,7 @@
       <c r="K19" t="s">
         <v>327</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19">
         <v>0.36</v>
       </c>
     </row>
@@ -32535,7 +32694,7 @@
       <c r="K20" t="s">
         <v>329</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <v>0.36</v>
       </c>
     </row>
@@ -32573,7 +32732,7 @@
       <c r="K21" t="s">
         <v>331</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21">
         <v>0.36</v>
       </c>
     </row>
@@ -32611,7 +32770,7 @@
       <c r="K22" t="s">
         <v>333</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <v>0.36</v>
       </c>
     </row>
@@ -32649,7 +32808,7 @@
       <c r="K23" t="s">
         <v>335</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23">
         <v>0.36</v>
       </c>
     </row>
@@ -32687,7 +32846,7 @@
       <c r="K24" t="s">
         <v>337</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>0.36</v>
       </c>
     </row>
@@ -32725,7 +32884,7 @@
       <c r="K25" t="s">
         <v>339</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25">
         <v>0.36</v>
       </c>
     </row>
@@ -32763,7 +32922,7 @@
       <c r="K26" t="s">
         <v>340</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26">
         <v>0.36</v>
       </c>
     </row>
@@ -32801,7 +32960,7 @@
       <c r="K27" t="s">
         <v>341</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27">
         <v>0.36</v>
       </c>
     </row>
@@ -32839,7 +32998,7 @@
       <c r="K28" t="s">
         <v>342</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28">
         <v>0.36</v>
       </c>
     </row>
@@ -32877,7 +33036,7 @@
       <c r="K29" t="s">
         <v>343</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29">
         <v>0.36</v>
       </c>
     </row>
@@ -32915,7 +33074,7 @@
       <c r="K30" t="s">
         <v>345</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <v>0.36</v>
       </c>
     </row>
@@ -32953,7 +33112,7 @@
       <c r="K31" t="s">
         <v>329</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31">
         <v>0.36</v>
       </c>
     </row>
@@ -32991,7 +33150,7 @@
       <c r="K32" t="s">
         <v>346</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32">
         <v>0.36</v>
       </c>
     </row>
@@ -33029,7 +33188,7 @@
       <c r="K33" t="s">
         <v>347</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33">
         <v>0.36</v>
       </c>
     </row>
@@ -33067,7 +33226,7 @@
       <c r="K34" t="s">
         <v>340</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <v>0.36</v>
       </c>
     </row>
@@ -33105,7 +33264,7 @@
       <c r="K35" t="s">
         <v>348</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35">
         <v>0.36</v>
       </c>
     </row>
@@ -33143,7 +33302,7 @@
       <c r="K36" t="s">
         <v>303</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36">
         <v>0.36</v>
       </c>
     </row>
@@ -33181,7 +33340,7 @@
       <c r="K37" t="s">
         <v>349</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37">
         <v>0.36</v>
       </c>
     </row>
@@ -33219,7 +33378,7 @@
       <c r="K38" t="s">
         <v>350</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38">
         <v>0.36</v>
       </c>
     </row>
@@ -33257,7 +33416,7 @@
       <c r="K39" t="s">
         <v>313</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39">
         <v>0.36</v>
       </c>
     </row>
@@ -33295,7 +33454,7 @@
       <c r="K40" t="s">
         <v>351</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40">
         <v>0.36</v>
       </c>
     </row>
@@ -33333,7 +33492,7 @@
       <c r="K41" t="s">
         <v>312</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41">
         <v>0.36</v>
       </c>
     </row>
@@ -33371,7 +33530,7 @@
       <c r="K42" t="s">
         <v>314</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42">
         <v>0.36</v>
       </c>
     </row>
@@ -33409,7 +33568,7 @@
       <c r="K43" t="s">
         <v>352</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43">
         <v>0.36</v>
       </c>
     </row>
@@ -33447,7 +33606,7 @@
       <c r="K44" t="s">
         <v>353</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44">
         <v>0.36</v>
       </c>
     </row>
@@ -33485,7 +33644,7 @@
       <c r="K45" t="s">
         <v>354</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45">
         <v>0.36</v>
       </c>
     </row>
@@ -33523,7 +33682,7 @@
       <c r="K46" t="s">
         <v>355</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46">
         <v>0.36</v>
       </c>
     </row>
@@ -33561,7 +33720,7 @@
       <c r="K47" t="s">
         <v>356</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47">
         <v>0.36</v>
       </c>
     </row>
@@ -33599,7 +33758,7 @@
       <c r="K48" t="s">
         <v>357</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48">
         <v>0.36</v>
       </c>
     </row>
@@ -33637,7 +33796,7 @@
       <c r="K49" t="s">
         <v>358</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49">
         <v>0.36</v>
       </c>
     </row>
@@ -33675,7 +33834,7 @@
       <c r="K50" t="s">
         <v>360</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50">
         <v>0.36</v>
       </c>
     </row>
@@ -33713,7 +33872,7 @@
       <c r="K51" t="s">
         <v>362</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51">
         <v>0.36</v>
       </c>
     </row>
@@ -33751,7 +33910,7 @@
       <c r="K52" t="s">
         <v>363</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52">
         <v>0.36</v>
       </c>
     </row>
@@ -33789,7 +33948,7 @@
       <c r="K53" t="s">
         <v>365</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53">
         <v>0.36</v>
       </c>
     </row>
@@ -33827,7 +33986,7 @@
       <c r="K54" t="s">
         <v>366</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54">
         <v>0.36</v>
       </c>
     </row>
@@ -33865,7 +34024,7 @@
       <c r="K55" t="s">
         <v>367</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55">
         <v>0.36</v>
       </c>
     </row>
@@ -33903,7 +34062,7 @@
       <c r="K56" t="s">
         <v>368</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56">
         <v>0.36</v>
       </c>
     </row>
@@ -33941,7 +34100,7 @@
       <c r="K57" t="s">
         <v>369</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57">
         <v>0.36</v>
       </c>
     </row>
@@ -33979,7 +34138,7 @@
       <c r="K58" t="s">
         <v>370</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58">
         <v>0.36</v>
       </c>
     </row>
@@ -34017,7 +34176,7 @@
       <c r="K59" t="s">
         <v>371</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59">
         <v>0.36</v>
       </c>
     </row>
@@ -34055,7 +34214,7 @@
       <c r="K60" t="s">
         <v>372</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60">
         <v>0.36</v>
       </c>
     </row>
@@ -34093,7 +34252,7 @@
       <c r="K61" t="s">
         <v>373</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61">
         <v>0.36</v>
       </c>
     </row>
@@ -34131,7 +34290,7 @@
       <c r="K62" t="s">
         <v>374</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62">
         <v>0.36</v>
       </c>
     </row>
@@ -34169,7 +34328,7 @@
       <c r="K63" t="s">
         <v>313</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63">
         <v>0.36</v>
       </c>
     </row>
@@ -34207,7 +34366,7 @@
       <c r="K64" t="s">
         <v>316</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64">
         <v>0.36</v>
       </c>
     </row>
@@ -34245,7 +34404,7 @@
       <c r="K65" t="s">
         <v>314</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65">
         <v>0.36</v>
       </c>
     </row>
@@ -34283,7 +34442,7 @@
       <c r="K66" t="s">
         <v>312</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66">
         <v>0.36</v>
       </c>
     </row>
@@ -34321,7 +34480,7 @@
       <c r="K67" t="s">
         <v>375</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67">
         <v>0.36</v>
       </c>
     </row>
@@ -34359,7 +34518,7 @@
       <c r="K68" t="s">
         <v>376</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68">
         <v>0.36</v>
       </c>
     </row>
@@ -34397,7 +34556,7 @@
       <c r="K69" t="s">
         <v>377</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69">
         <v>0.36</v>
       </c>
     </row>
@@ -34435,7 +34594,7 @@
       <c r="K70" t="s">
         <v>379</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70">
         <v>0.36</v>
       </c>
     </row>
@@ -34473,7 +34632,7 @@
       <c r="K71" t="s">
         <v>381</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71">
         <v>0.36</v>
       </c>
     </row>
@@ -34511,7 +34670,7 @@
       <c r="K72" t="s">
         <v>383</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72">
         <v>0.36</v>
       </c>
     </row>
@@ -34549,7 +34708,7 @@
       <c r="K73" t="s">
         <v>384</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73">
         <v>0.36</v>
       </c>
     </row>
@@ -34587,7 +34746,7 @@
       <c r="K74" t="s">
         <v>385</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74">
         <v>0.36</v>
       </c>
     </row>
@@ -34625,7 +34784,7 @@
       <c r="K75" t="s">
         <v>386</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75">
         <v>0.36</v>
       </c>
     </row>
@@ -34663,7 +34822,7 @@
       <c r="K76" t="s">
         <v>387</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76">
         <v>0.36</v>
       </c>
     </row>
@@ -34701,7 +34860,7 @@
       <c r="K77" t="s">
         <v>389</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77">
         <v>0.36</v>
       </c>
     </row>
@@ -34739,7 +34898,7 @@
       <c r="K78" t="s">
         <v>390</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78">
         <v>0.36</v>
       </c>
     </row>
@@ -34777,7 +34936,7 @@
       <c r="K79" t="s">
         <v>391</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79">
         <v>0.36</v>
       </c>
     </row>
@@ -34815,7 +34974,7 @@
       <c r="K80" t="s">
         <v>393</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80">
         <v>0.36</v>
       </c>
     </row>
@@ -34853,7 +35012,7 @@
       <c r="K81" t="s">
         <v>394</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81">
         <v>0.36</v>
       </c>
     </row>
@@ -34891,7 +35050,7 @@
       <c r="K82" t="s">
         <v>395</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82">
         <v>0.36</v>
       </c>
     </row>
@@ -34929,7 +35088,7 @@
       <c r="K83" t="s">
         <v>396</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83">
         <v>0.36</v>
       </c>
     </row>
@@ -34967,7 +35126,7 @@
       <c r="K84" t="s">
         <v>397</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84">
         <v>0.36</v>
       </c>
     </row>
@@ -35005,7 +35164,7 @@
       <c r="K85" t="s">
         <v>398</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85">
         <v>0.36</v>
       </c>
     </row>
@@ -35043,7 +35202,7 @@
       <c r="K86" t="s">
         <v>399</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86">
         <v>0.39</v>
       </c>
     </row>
@@ -35081,7 +35240,7 @@
       <c r="K87" t="s">
         <v>350</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87">
         <v>0.39</v>
       </c>
     </row>
@@ -35119,7 +35278,7 @@
       <c r="K88" t="s">
         <v>400</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88">
         <v>0.39</v>
       </c>
     </row>
@@ -35157,7 +35316,7 @@
       <c r="K89" t="s">
         <v>401</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89">
         <v>0.39</v>
       </c>
     </row>
@@ -35195,7 +35354,7 @@
       <c r="K90" t="s">
         <v>402</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90">
         <v>0.39</v>
       </c>
     </row>
@@ -35233,7 +35392,7 @@
       <c r="K91" t="s">
         <v>403</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>0.39</v>
       </c>
     </row>
@@ -35271,7 +35430,7 @@
       <c r="K92" t="s">
         <v>404</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92">
         <v>0.39</v>
       </c>
     </row>
@@ -35309,7 +35468,7 @@
       <c r="K93" t="s">
         <v>405</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93">
         <v>0.39</v>
       </c>
     </row>
@@ -35347,7 +35506,7 @@
       <c r="K94" t="s">
         <v>406</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94">
         <v>0.39</v>
       </c>
     </row>
@@ -35385,7 +35544,7 @@
       <c r="K95" t="s">
         <v>407</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95">
         <v>0.39</v>
       </c>
     </row>
@@ -35423,7 +35582,7 @@
       <c r="K96" t="s">
         <v>408</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96">
         <v>0.39</v>
       </c>
     </row>
@@ -35461,7 +35620,7 @@
       <c r="K97" t="s">
         <v>409</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97">
         <v>0.39</v>
       </c>
     </row>
@@ -35499,7 +35658,7 @@
       <c r="K98" t="s">
         <v>410</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
         <v>0.39</v>
       </c>
     </row>
@@ -35537,7 +35696,7 @@
       <c r="K99" t="s">
         <v>411</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99">
         <v>0.39</v>
       </c>
     </row>
@@ -35575,7 +35734,7 @@
       <c r="K100" t="s">
         <v>326</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100">
         <v>0.39</v>
       </c>
     </row>
@@ -35613,7 +35772,7 @@
       <c r="K101" t="s">
         <v>327</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>0.39</v>
       </c>
     </row>
@@ -35651,7 +35810,7 @@
       <c r="K102" t="s">
         <v>325</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102">
         <v>0.39</v>
       </c>
     </row>
@@ -35689,7 +35848,7 @@
       <c r="K103" t="s">
         <v>412</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>0.39</v>
       </c>
     </row>
@@ -35727,7 +35886,7 @@
       <c r="K104" t="s">
         <v>313</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104">
         <v>0.39</v>
       </c>
     </row>
@@ -35765,7 +35924,7 @@
       <c r="K105" t="s">
         <v>413</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105">
         <v>0.39</v>
       </c>
     </row>
@@ -35803,7 +35962,7 @@
       <c r="K106" t="s">
         <v>414</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106">
         <v>0.39</v>
       </c>
     </row>
@@ -35841,7 +36000,7 @@
       <c r="K107" t="s">
         <v>415</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107">
         <v>0.39</v>
       </c>
     </row>
@@ -35879,7 +36038,7 @@
       <c r="K108" t="s">
         <v>340</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108">
         <v>0.39</v>
       </c>
     </row>
@@ -35917,7 +36076,7 @@
       <c r="K109" t="s">
         <v>416</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109">
         <v>0.39</v>
       </c>
     </row>
@@ -35955,7 +36114,7 @@
       <c r="K110" t="s">
         <v>373</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110">
         <v>0.39</v>
       </c>
     </row>
@@ -35993,7 +36152,7 @@
       <c r="K111" t="s">
         <v>417</v>
       </c>
-      <c r="L111" s="3">
+      <c r="L111">
         <v>0.39</v>
       </c>
     </row>
@@ -36031,7 +36190,7 @@
       <c r="K112" t="s">
         <v>418</v>
       </c>
-      <c r="L112" s="3">
+      <c r="L112">
         <v>0.39</v>
       </c>
     </row>
@@ -36069,7 +36228,7 @@
       <c r="K113" t="s">
         <v>419</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L113">
         <v>0.39</v>
       </c>
     </row>
@@ -36107,7 +36266,7 @@
       <c r="K114" t="s">
         <v>420</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L114">
         <v>0.39</v>
       </c>
     </row>
@@ -36145,7 +36304,7 @@
       <c r="K115" t="s">
         <v>421</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115">
         <v>0.39</v>
       </c>
     </row>
@@ -36183,7 +36342,7 @@
       <c r="K116" t="s">
         <v>422</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L116">
         <v>0.39</v>
       </c>
     </row>
@@ -36221,7 +36380,7 @@
       <c r="K117" t="s">
         <v>423</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L117">
         <v>0.39</v>
       </c>
     </row>
@@ -36259,7 +36418,7 @@
       <c r="K118" t="s">
         <v>424</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L118">
         <v>0.39</v>
       </c>
     </row>
@@ -36297,7 +36456,7 @@
       <c r="K119" t="s">
         <v>425</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L119">
         <v>0.39</v>
       </c>
     </row>
@@ -36335,7 +36494,7 @@
       <c r="K120" t="s">
         <v>426</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L120">
         <v>0.39</v>
       </c>
     </row>
@@ -36373,7 +36532,7 @@
       <c r="K121" t="s">
         <v>427</v>
       </c>
-      <c r="L121" s="3">
+      <c r="L121">
         <v>0.39</v>
       </c>
     </row>
@@ -36411,7 +36570,7 @@
       <c r="K122" t="s">
         <v>428</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L122">
         <v>0.39</v>
       </c>
     </row>
@@ -36449,7 +36608,7 @@
       <c r="K123" t="s">
         <v>429</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L123">
         <v>0.39</v>
       </c>
     </row>
@@ -36487,7 +36646,7 @@
       <c r="K124" t="s">
         <v>430</v>
       </c>
-      <c r="L124" s="3">
+      <c r="L124">
         <v>0.39</v>
       </c>
     </row>
@@ -36525,7 +36684,7 @@
       <c r="K125" t="s">
         <v>431</v>
       </c>
-      <c r="L125" s="3">
+      <c r="L125">
         <v>0.39</v>
       </c>
     </row>
@@ -36563,7 +36722,7 @@
       <c r="K126" t="s">
         <v>325</v>
       </c>
-      <c r="L126" s="3">
+      <c r="L126">
         <v>0.53</v>
       </c>
     </row>
@@ -36601,7 +36760,7 @@
       <c r="K127" t="s">
         <v>326</v>
       </c>
-      <c r="L127" s="3">
+      <c r="L127">
         <v>0.53</v>
       </c>
     </row>
@@ -36639,7 +36798,7 @@
       <c r="K128" t="s">
         <v>432</v>
       </c>
-      <c r="L128" s="3">
+      <c r="L128">
         <v>0.53</v>
       </c>
     </row>
@@ -36677,7 +36836,7 @@
       <c r="K129" t="s">
         <v>433</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L129">
         <v>0.53</v>
       </c>
     </row>
@@ -36715,7 +36874,7 @@
       <c r="K130" t="s">
         <v>419</v>
       </c>
-      <c r="L130" s="3">
+      <c r="L130">
         <v>0.53</v>
       </c>
     </row>
@@ -36753,7 +36912,7 @@
       <c r="K131" t="s">
         <v>366</v>
       </c>
-      <c r="L131" s="3">
+      <c r="L131">
         <v>0.53</v>
       </c>
     </row>
@@ -36791,7 +36950,7 @@
       <c r="K132" t="s">
         <v>373</v>
       </c>
-      <c r="L132" s="3">
+      <c r="L132">
         <v>0.53</v>
       </c>
     </row>
@@ -36829,7 +36988,7 @@
       <c r="K133" t="s">
         <v>434</v>
       </c>
-      <c r="L133" s="3">
+      <c r="L133">
         <v>0.53</v>
       </c>
     </row>
@@ -36867,7 +37026,7 @@
       <c r="K134" t="s">
         <v>350</v>
       </c>
-      <c r="L134" s="3">
+      <c r="L134">
         <v>0.53</v>
       </c>
     </row>
@@ -36905,7 +37064,7 @@
       <c r="K135" t="s">
         <v>435</v>
       </c>
-      <c r="L135" s="3">
+      <c r="L135">
         <v>0.53</v>
       </c>
     </row>
@@ -36943,7 +37102,7 @@
       <c r="K136" t="s">
         <v>401</v>
       </c>
-      <c r="L136" s="3">
+      <c r="L136">
         <v>0.53</v>
       </c>
     </row>
@@ -36981,7 +37140,7 @@
       <c r="K137" t="s">
         <v>436</v>
       </c>
-      <c r="L137" s="3">
+      <c r="L137">
         <v>0.53</v>
       </c>
     </row>
@@ -37019,7 +37178,7 @@
       <c r="K138" t="s">
         <v>437</v>
       </c>
-      <c r="L138" s="3">
+      <c r="L138">
         <v>0.53</v>
       </c>
     </row>
@@ -37057,7 +37216,7 @@
       <c r="K139" t="s">
         <v>386</v>
       </c>
-      <c r="L139" s="3">
+      <c r="L139">
         <v>0.53</v>
       </c>
     </row>
@@ -37095,7 +37254,7 @@
       <c r="K140" t="s">
         <v>384</v>
       </c>
-      <c r="L140" s="3">
+      <c r="L140">
         <v>0.53</v>
       </c>
     </row>
@@ -37133,7 +37292,7 @@
       <c r="K141" t="s">
         <v>438</v>
       </c>
-      <c r="L141" s="3">
+      <c r="L141">
         <v>0.53</v>
       </c>
     </row>
@@ -37171,7 +37330,7 @@
       <c r="K142" t="s">
         <v>439</v>
       </c>
-      <c r="L142" s="3">
+      <c r="L142">
         <v>0.53</v>
       </c>
     </row>
@@ -37209,7 +37368,7 @@
       <c r="K143" t="s">
         <v>425</v>
       </c>
-      <c r="L143" s="3">
+      <c r="L143">
         <v>0.53</v>
       </c>
     </row>
@@ -37247,7 +37406,7 @@
       <c r="K144" t="s">
         <v>347</v>
       </c>
-      <c r="L144" s="3">
+      <c r="L144">
         <v>0.53</v>
       </c>
     </row>
@@ -37285,7 +37444,7 @@
       <c r="K145" t="s">
         <v>440</v>
       </c>
-      <c r="L145" s="3">
+      <c r="L145">
         <v>0.53</v>
       </c>
     </row>
@@ -37323,7 +37482,7 @@
       <c r="K146" t="s">
         <v>441</v>
       </c>
-      <c r="L146" s="3">
+      <c r="L146">
         <v>0.53</v>
       </c>
     </row>
@@ -37361,7 +37520,7 @@
       <c r="K147" t="s">
         <v>424</v>
       </c>
-      <c r="L147" s="3">
+      <c r="L147">
         <v>0.53</v>
       </c>
     </row>
@@ -37399,7 +37558,7 @@
       <c r="K148" t="s">
         <v>442</v>
       </c>
-      <c r="L148" s="3">
+      <c r="L148">
         <v>0.53</v>
       </c>
     </row>
@@ -37437,7 +37596,7 @@
       <c r="K149" t="s">
         <v>444</v>
       </c>
-      <c r="L149" s="3">
+      <c r="L149">
         <v>0.53</v>
       </c>
     </row>
@@ -37475,7 +37634,7 @@
       <c r="K150" t="s">
         <v>622</v>
       </c>
-      <c r="L150" s="3">
+      <c r="L150">
         <v>0.53</v>
       </c>
     </row>
@@ -37513,7 +37672,7 @@
       <c r="K151" t="s">
         <v>641</v>
       </c>
-      <c r="L151" s="3">
+      <c r="L151">
         <v>0.53</v>
       </c>
     </row>
@@ -37551,7 +37710,7 @@
       <c r="K152" t="s">
         <v>445</v>
       </c>
-      <c r="L152" s="3">
+      <c r="L152">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37589,7 +37748,7 @@
       <c r="K153" t="s">
         <v>432</v>
       </c>
-      <c r="L153" s="3">
+      <c r="L153">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37627,7 +37786,7 @@
       <c r="K154" t="s">
         <v>446</v>
       </c>
-      <c r="L154" s="3">
+      <c r="L154">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37665,7 +37824,7 @@
       <c r="K155" t="s">
         <v>327</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L155">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37703,7 +37862,7 @@
       <c r="K156" t="s">
         <v>316</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L156">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37741,7 +37900,7 @@
       <c r="K157" t="s">
         <v>447</v>
       </c>
-      <c r="L157" s="3">
+      <c r="L157">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37779,7 +37938,7 @@
       <c r="K158" t="s">
         <v>448</v>
       </c>
-      <c r="L158" s="3">
+      <c r="L158">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37817,7 +37976,7 @@
       <c r="K159" t="s">
         <v>405</v>
       </c>
-      <c r="L159" s="3">
+      <c r="L159">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37855,7 +38014,7 @@
       <c r="K160" t="s">
         <v>449</v>
       </c>
-      <c r="L160" s="3">
+      <c r="L160">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37893,7 +38052,7 @@
       <c r="K161" t="s">
         <v>303</v>
       </c>
-      <c r="L161" s="3">
+      <c r="L161">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37931,7 +38090,7 @@
       <c r="K162" t="s">
         <v>350</v>
       </c>
-      <c r="L162" s="3">
+      <c r="L162">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -37969,7 +38128,7 @@
       <c r="K163" t="s">
         <v>450</v>
       </c>
-      <c r="L163" s="3">
+      <c r="L163">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38007,7 +38166,7 @@
       <c r="K164" t="s">
         <v>451</v>
       </c>
-      <c r="L164" s="3">
+      <c r="L164">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38045,7 +38204,7 @@
       <c r="K165" t="s">
         <v>452</v>
       </c>
-      <c r="L165" s="3">
+      <c r="L165">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38083,7 +38242,7 @@
       <c r="K166" t="s">
         <v>453</v>
       </c>
-      <c r="L166" s="3">
+      <c r="L166">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38121,7 +38280,7 @@
       <c r="K167" t="s">
         <v>454</v>
       </c>
-      <c r="L167" s="3">
+      <c r="L167">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38159,7 +38318,7 @@
       <c r="K168" t="s">
         <v>419</v>
       </c>
-      <c r="L168" s="3">
+      <c r="L168">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38197,7 +38356,7 @@
       <c r="K169" t="s">
         <v>340</v>
       </c>
-      <c r="L169" s="3">
+      <c r="L169">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38235,7 +38394,7 @@
       <c r="K170" t="s">
         <v>455</v>
       </c>
-      <c r="L170" s="3">
+      <c r="L170">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38273,7 +38432,7 @@
       <c r="K171" t="s">
         <v>347</v>
       </c>
-      <c r="L171" s="3">
+      <c r="L171">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38311,7 +38470,7 @@
       <c r="K172" t="s">
         <v>439</v>
       </c>
-      <c r="L172" s="3">
+      <c r="L172">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38349,7 +38508,7 @@
       <c r="K173" t="s">
         <v>440</v>
       </c>
-      <c r="L173" s="3">
+      <c r="L173">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38387,7 +38546,7 @@
       <c r="K174" t="s">
         <v>419</v>
       </c>
-      <c r="L174" s="3">
+      <c r="L174">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38425,7 +38584,7 @@
       <c r="K175" t="s">
         <v>456</v>
       </c>
-      <c r="L175" s="3">
+      <c r="L175">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38463,7 +38622,7 @@
       <c r="K176" t="s">
         <v>457</v>
       </c>
-      <c r="L176" s="3">
+      <c r="L176">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38501,7 +38660,7 @@
       <c r="K177" t="s">
         <v>426</v>
       </c>
-      <c r="L177" s="3">
+      <c r="L177">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38539,7 +38698,7 @@
       <c r="K178" t="s">
         <v>333</v>
       </c>
-      <c r="L178" s="3">
+      <c r="L178">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38577,7 +38736,7 @@
       <c r="K179" t="s">
         <v>458</v>
       </c>
-      <c r="L179" s="3">
+      <c r="L179">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38615,7 +38774,7 @@
       <c r="K180" t="s">
         <v>429</v>
       </c>
-      <c r="L180" s="3">
+      <c r="L180">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38653,7 +38812,7 @@
       <c r="K181" t="s">
         <v>459</v>
       </c>
-      <c r="L181" s="3">
+      <c r="L181">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -38691,7 +38850,7 @@
       <c r="K182" t="s">
         <v>460</v>
       </c>
-      <c r="L182" s="3">
+      <c r="L182">
         <v>0.61</v>
       </c>
     </row>
@@ -38729,7 +38888,7 @@
       <c r="K183" t="s">
         <v>362</v>
       </c>
-      <c r="L183" s="3">
+      <c r="L183">
         <v>0.61</v>
       </c>
     </row>
@@ -38767,7 +38926,7 @@
       <c r="K184" t="s">
         <v>462</v>
       </c>
-      <c r="L184" s="3">
+      <c r="L184">
         <v>0.61</v>
       </c>
     </row>
@@ -38805,7 +38964,7 @@
       <c r="K185" t="s">
         <v>441</v>
       </c>
-      <c r="L185" s="3">
+      <c r="L185">
         <v>0.61</v>
       </c>
     </row>
@@ -38843,7 +39002,7 @@
       <c r="K186" t="s">
         <v>463</v>
       </c>
-      <c r="L186" s="3">
+      <c r="L186">
         <v>0.61</v>
       </c>
     </row>
@@ -38881,7 +39040,7 @@
       <c r="K187" t="s">
         <v>434</v>
       </c>
-      <c r="L187" s="3">
+      <c r="L187">
         <v>0.61</v>
       </c>
     </row>
@@ -38919,7 +39078,7 @@
       <c r="K188" t="s">
         <v>464</v>
       </c>
-      <c r="L188" s="3">
+      <c r="L188">
         <v>0.61</v>
       </c>
     </row>
@@ -38957,7 +39116,7 @@
       <c r="K189" t="s">
         <v>350</v>
       </c>
-      <c r="L189" s="3">
+      <c r="L189">
         <v>0.61</v>
       </c>
     </row>
@@ -38995,7 +39154,7 @@
       <c r="K190" t="s">
         <v>401</v>
       </c>
-      <c r="L190" s="3">
+      <c r="L190">
         <v>0.61</v>
       </c>
     </row>
@@ -39033,7 +39192,7 @@
       <c r="K191" t="s">
         <v>410</v>
       </c>
-      <c r="L191" s="3">
+      <c r="L191">
         <v>0.61</v>
       </c>
     </row>
@@ -39071,7 +39230,7 @@
       <c r="K192" t="s">
         <v>432</v>
       </c>
-      <c r="L192" s="3">
+      <c r="L192">
         <v>0.61</v>
       </c>
     </row>
@@ -39109,7 +39268,7 @@
       <c r="K193" t="s">
         <v>327</v>
       </c>
-      <c r="L193" s="3">
+      <c r="L193">
         <v>0.61</v>
       </c>
     </row>
@@ -39147,7 +39306,7 @@
       <c r="K194" t="s">
         <v>326</v>
       </c>
-      <c r="L194" s="3">
+      <c r="L194">
         <v>0.61</v>
       </c>
     </row>
@@ -39185,7 +39344,7 @@
       <c r="K195" t="s">
         <v>465</v>
       </c>
-      <c r="L195" s="3">
+      <c r="L195">
         <v>0.61</v>
       </c>
     </row>
@@ -39223,7 +39382,7 @@
       <c r="K196" t="s">
         <v>466</v>
       </c>
-      <c r="L196" s="3">
+      <c r="L196">
         <v>0.61</v>
       </c>
     </row>
@@ -39261,7 +39420,7 @@
       <c r="K197" t="s">
         <v>456</v>
       </c>
-      <c r="L197" s="3">
+      <c r="L197">
         <v>0.61</v>
       </c>
     </row>
@@ -39299,7 +39458,7 @@
       <c r="K198" t="s">
         <v>444</v>
       </c>
-      <c r="L198" s="3">
+      <c r="L198">
         <v>0.61</v>
       </c>
     </row>
@@ -39337,7 +39496,7 @@
       <c r="K199" t="s">
         <v>467</v>
       </c>
-      <c r="L199" s="3">
+      <c r="L199">
         <v>0.61</v>
       </c>
     </row>
@@ -39375,7 +39534,7 @@
       <c r="K200" t="s">
         <v>468</v>
       </c>
-      <c r="L200" s="3">
+      <c r="L200">
         <v>0.61</v>
       </c>
     </row>
@@ -39413,7 +39572,7 @@
       <c r="K201" t="s">
         <v>469</v>
       </c>
-      <c r="L201" s="3">
+      <c r="L201">
         <v>0.61</v>
       </c>
     </row>
@@ -39451,7 +39610,7 @@
       <c r="K202" t="s">
         <v>470</v>
       </c>
-      <c r="L202" s="3">
+      <c r="L202">
         <v>0.61</v>
       </c>
     </row>
@@ -39489,7 +39648,7 @@
       <c r="K203" t="s">
         <v>456</v>
       </c>
-      <c r="L203" s="3">
+      <c r="L203">
         <v>0.61</v>
       </c>
     </row>
@@ -39527,7 +39686,7 @@
       <c r="K204" t="s">
         <v>471</v>
       </c>
-      <c r="L204" s="3">
+      <c r="L204">
         <v>0.61</v>
       </c>
     </row>
@@ -39565,7 +39724,7 @@
       <c r="K205" t="s">
         <v>454</v>
       </c>
-      <c r="L205" s="3">
+      <c r="L205">
         <v>0.61</v>
       </c>
     </row>
@@ -39603,7 +39762,7 @@
       <c r="K206" t="s">
         <v>419</v>
       </c>
-      <c r="L206" s="3">
+      <c r="L206">
         <v>0.61</v>
       </c>
     </row>
@@ -39641,7 +39800,7 @@
       <c r="K207" t="s">
         <v>472</v>
       </c>
-      <c r="L207" s="3">
+      <c r="L207">
         <v>0.61</v>
       </c>
     </row>
@@ -39679,7 +39838,7 @@
       <c r="K208" t="s">
         <v>473</v>
       </c>
-      <c r="L208" s="3">
+      <c r="L208">
         <v>0.61</v>
       </c>
     </row>
@@ -39717,7 +39876,7 @@
       <c r="K209" t="s">
         <v>333</v>
       </c>
-      <c r="L209" s="3">
+      <c r="L209">
         <v>0.61</v>
       </c>
     </row>
@@ -39755,7 +39914,7 @@
       <c r="K210" t="s">
         <v>430</v>
       </c>
-      <c r="L210" s="3">
+      <c r="L210">
         <v>0.61</v>
       </c>
     </row>
@@ -39793,7 +39952,7 @@
       <c r="K211" t="s">
         <v>475</v>
       </c>
-      <c r="L211" s="3">
+      <c r="L211">
         <v>0.61</v>
       </c>
     </row>
@@ -39831,7 +39990,7 @@
       <c r="K212" t="s">
         <v>477</v>
       </c>
-      <c r="L212" s="3">
+      <c r="L212">
         <v>0.61</v>
       </c>
     </row>
@@ -39869,7 +40028,7 @@
       <c r="K213" t="s">
         <v>478</v>
       </c>
-      <c r="L213" s="3">
+      <c r="L213">
         <v>0.61</v>
       </c>
     </row>
@@ -39907,7 +40066,7 @@
       <c r="K214" t="s">
         <v>479</v>
       </c>
-      <c r="L214" s="3">
+      <c r="L214">
         <v>0.61</v>
       </c>
     </row>
@@ -39945,7 +40104,7 @@
       <c r="K215" t="s">
         <v>480</v>
       </c>
-      <c r="L215" s="3">
+      <c r="L215">
         <v>0.61</v>
       </c>
     </row>
@@ -39983,7 +40142,7 @@
       <c r="K216" t="s">
         <v>481</v>
       </c>
-      <c r="L216" s="3">
+      <c r="L216">
         <v>0.66</v>
       </c>
     </row>
@@ -40021,7 +40180,7 @@
       <c r="K217" t="s">
         <v>482</v>
       </c>
-      <c r="L217" s="3">
+      <c r="L217">
         <v>0.66</v>
       </c>
     </row>
@@ -40059,7 +40218,7 @@
       <c r="K218" t="s">
         <v>483</v>
       </c>
-      <c r="L218" s="3">
+      <c r="L218">
         <v>0.66</v>
       </c>
     </row>
@@ -40097,7 +40256,7 @@
       <c r="K219" t="s">
         <v>484</v>
       </c>
-      <c r="L219" s="3">
+      <c r="L219">
         <v>0.66</v>
       </c>
     </row>
@@ -40135,7 +40294,7 @@
       <c r="K220" t="s">
         <v>485</v>
       </c>
-      <c r="L220" s="3">
+      <c r="L220">
         <v>0.66</v>
       </c>
     </row>
@@ -40173,7 +40332,7 @@
       <c r="K221" t="s">
         <v>404</v>
       </c>
-      <c r="L221" s="3">
+      <c r="L221">
         <v>0.66</v>
       </c>
     </row>
@@ -40211,7 +40370,7 @@
       <c r="K222" t="s">
         <v>486</v>
       </c>
-      <c r="L222" s="3">
+      <c r="L222">
         <v>0.66</v>
       </c>
     </row>
@@ -40249,7 +40408,7 @@
       <c r="K223" t="s">
         <v>487</v>
       </c>
-      <c r="L223" s="3">
+      <c r="L223">
         <v>0.66</v>
       </c>
     </row>
@@ -40287,7 +40446,7 @@
       <c r="K224" t="s">
         <v>488</v>
       </c>
-      <c r="L224" s="3">
+      <c r="L224">
         <v>0.66</v>
       </c>
     </row>
@@ -40325,7 +40484,7 @@
       <c r="K225" t="s">
         <v>489</v>
       </c>
-      <c r="L225" s="3">
+      <c r="L225">
         <v>0.66</v>
       </c>
     </row>
@@ -40363,7 +40522,7 @@
       <c r="K226" t="s">
         <v>490</v>
       </c>
-      <c r="L226" s="3">
+      <c r="L226">
         <v>0.66</v>
       </c>
     </row>
@@ -40401,7 +40560,7 @@
       <c r="K227" t="s">
         <v>491</v>
       </c>
-      <c r="L227" s="3">
+      <c r="L227">
         <v>0.66</v>
       </c>
     </row>
@@ -40439,7 +40598,7 @@
       <c r="K228" t="s">
         <v>492</v>
       </c>
-      <c r="L228" s="3">
+      <c r="L228">
         <v>0.66</v>
       </c>
     </row>
@@ -40477,7 +40636,7 @@
       <c r="K229" t="s">
         <v>493</v>
       </c>
-      <c r="L229" s="3">
+      <c r="L229">
         <v>0.66</v>
       </c>
     </row>
@@ -40515,7 +40674,7 @@
       <c r="K230" t="s">
         <v>494</v>
       </c>
-      <c r="L230" s="3">
+      <c r="L230">
         <v>0.66</v>
       </c>
     </row>
@@ -40553,7 +40712,7 @@
       <c r="K231" t="s">
         <v>495</v>
       </c>
-      <c r="L231" s="3">
+      <c r="L231">
         <v>0.66</v>
       </c>
     </row>
@@ -40591,7 +40750,7 @@
       <c r="K232" t="s">
         <v>496</v>
       </c>
-      <c r="L232" s="3">
+      <c r="L232">
         <v>0.66</v>
       </c>
     </row>
@@ -40629,7 +40788,7 @@
       <c r="K233" t="s">
         <v>497</v>
       </c>
-      <c r="L233" s="3">
+      <c r="L233">
         <v>0.66</v>
       </c>
     </row>
@@ -40667,7 +40826,7 @@
       <c r="K234" t="s">
         <v>498</v>
       </c>
-      <c r="L234" s="3">
+      <c r="L234">
         <v>0.66</v>
       </c>
     </row>
@@ -40705,7 +40864,7 @@
       <c r="K235" t="s">
         <v>499</v>
       </c>
-      <c r="L235" s="3">
+      <c r="L235">
         <v>0.66</v>
       </c>
     </row>
@@ -40743,7 +40902,7 @@
       <c r="K236" t="s">
         <v>500</v>
       </c>
-      <c r="L236" s="3">
+      <c r="L236">
         <v>0.66</v>
       </c>
     </row>
@@ -40781,7 +40940,7 @@
       <c r="K237" t="s">
         <v>465</v>
       </c>
-      <c r="L237" s="3">
+      <c r="L237">
         <v>0.66</v>
       </c>
     </row>
@@ -40819,7 +40978,7 @@
       <c r="K238" t="s">
         <v>501</v>
       </c>
-      <c r="L238" s="3">
+      <c r="L238">
         <v>0.66</v>
       </c>
     </row>
@@ -40857,7 +41016,7 @@
       <c r="K239" t="s">
         <v>502</v>
       </c>
-      <c r="L239" s="3">
+      <c r="L239">
         <v>0.66</v>
       </c>
     </row>
@@ -40895,7 +41054,7 @@
       <c r="K240" t="s">
         <v>439</v>
       </c>
-      <c r="L240" s="3">
+      <c r="L240">
         <v>0.66</v>
       </c>
     </row>
@@ -40933,7 +41092,7 @@
       <c r="K241" t="s">
         <v>503</v>
       </c>
-      <c r="L241" s="3">
+      <c r="L241">
         <v>0.66</v>
       </c>
     </row>
@@ -40971,7 +41130,7 @@
       <c r="K242" t="s">
         <v>504</v>
       </c>
-      <c r="L242" s="3">
+      <c r="L242">
         <v>0.66</v>
       </c>
     </row>
@@ -41009,7 +41168,7 @@
       <c r="K243" t="s">
         <v>505</v>
       </c>
-      <c r="L243" s="3">
+      <c r="L243">
         <v>0.66</v>
       </c>
     </row>
@@ -41047,7 +41206,7 @@
       <c r="K244" t="s">
         <v>506</v>
       </c>
-      <c r="L244" s="3">
+      <c r="L244">
         <v>0.67</v>
       </c>
     </row>
@@ -41085,7 +41244,7 @@
       <c r="K245" t="s">
         <v>507</v>
       </c>
-      <c r="L245" s="3">
+      <c r="L245">
         <v>0.67</v>
       </c>
     </row>
@@ -41123,7 +41282,7 @@
       <c r="K246" t="s">
         <v>508</v>
       </c>
-      <c r="L246" s="3">
+      <c r="L246">
         <v>0.67</v>
       </c>
     </row>
@@ -41161,7 +41320,7 @@
       <c r="K247" t="s">
         <v>509</v>
       </c>
-      <c r="L247" s="3">
+      <c r="L247">
         <v>0.67</v>
       </c>
     </row>
@@ -41199,7 +41358,7 @@
       <c r="K248" t="s">
         <v>459</v>
       </c>
-      <c r="L248" s="3">
+      <c r="L248">
         <v>0.67</v>
       </c>
     </row>
@@ -41237,7 +41396,7 @@
       <c r="K249" t="s">
         <v>510</v>
       </c>
-      <c r="L249" s="3">
+      <c r="L249">
         <v>0.67</v>
       </c>
     </row>
@@ -41275,7 +41434,7 @@
       <c r="K250" t="s">
         <v>511</v>
       </c>
-      <c r="L250" s="3">
+      <c r="L250">
         <v>0.67</v>
       </c>
     </row>
@@ -41313,7 +41472,7 @@
       <c r="K251" t="s">
         <v>512</v>
       </c>
-      <c r="L251" s="3">
+      <c r="L251">
         <v>0.67</v>
       </c>
     </row>
@@ -41351,7 +41510,7 @@
       <c r="K252" t="s">
         <v>513</v>
       </c>
-      <c r="L252" s="3">
+      <c r="L252">
         <v>0.67</v>
       </c>
     </row>
@@ -41389,7 +41548,7 @@
       <c r="K253" t="s">
         <v>400</v>
       </c>
-      <c r="L253" s="3">
+      <c r="L253">
         <v>0.67</v>
       </c>
     </row>
@@ -41427,7 +41586,7 @@
       <c r="K254" t="s">
         <v>514</v>
       </c>
-      <c r="L254" s="3">
+      <c r="L254">
         <v>0.67</v>
       </c>
     </row>
@@ -41465,7 +41624,7 @@
       <c r="K255" t="s">
         <v>515</v>
       </c>
-      <c r="L255" s="3">
+      <c r="L255">
         <v>0.67</v>
       </c>
     </row>
@@ -41503,7 +41662,7 @@
       <c r="K256" t="s">
         <v>516</v>
       </c>
-      <c r="L256" s="3">
+      <c r="L256">
         <v>0.67</v>
       </c>
     </row>
@@ -41541,7 +41700,7 @@
       <c r="K257" t="s">
         <v>517</v>
       </c>
-      <c r="L257" s="3">
+      <c r="L257">
         <v>0.67</v>
       </c>
     </row>
@@ -41579,7 +41738,7 @@
       <c r="K258" t="s">
         <v>518</v>
       </c>
-      <c r="L258" s="3">
+      <c r="L258">
         <v>0.67</v>
       </c>
     </row>
@@ -41617,7 +41776,7 @@
       <c r="K259" t="s">
         <v>519</v>
       </c>
-      <c r="L259" s="3">
+      <c r="L259">
         <v>0.67</v>
       </c>
     </row>
@@ -41655,7 +41814,7 @@
       <c r="K260" t="s">
         <v>520</v>
       </c>
-      <c r="L260" s="3">
+      <c r="L260">
         <v>0.67</v>
       </c>
     </row>
@@ -41693,7 +41852,7 @@
       <c r="K261" t="s">
         <v>521</v>
       </c>
-      <c r="L261" s="3">
+      <c r="L261">
         <v>0.67</v>
       </c>
     </row>
@@ -41731,7 +41890,7 @@
       <c r="K262" t="s">
         <v>494</v>
       </c>
-      <c r="L262" s="3">
+      <c r="L262">
         <v>0.67</v>
       </c>
     </row>
@@ -41769,7 +41928,7 @@
       <c r="K263" t="s">
         <v>522</v>
       </c>
-      <c r="L263" s="3">
+      <c r="L263">
         <v>0.67</v>
       </c>
     </row>
@@ -41807,7 +41966,7 @@
       <c r="K264" t="s">
         <v>523</v>
       </c>
-      <c r="L264" s="3">
+      <c r="L264">
         <v>0.67</v>
       </c>
     </row>
@@ -41845,7 +42004,7 @@
       <c r="K265" t="s">
         <v>524</v>
       </c>
-      <c r="L265" s="3">
+      <c r="L265">
         <v>0.67</v>
       </c>
     </row>
@@ -41883,7 +42042,7 @@
       <c r="K266" t="s">
         <v>465</v>
       </c>
-      <c r="L266" s="3">
+      <c r="L266">
         <v>0.67</v>
       </c>
     </row>
@@ -41921,7 +42080,7 @@
       <c r="K267" t="s">
         <v>347</v>
       </c>
-      <c r="L267" s="3">
+      <c r="L267">
         <v>0.67</v>
       </c>
     </row>
@@ -41959,7 +42118,7 @@
       <c r="K268" t="s">
         <v>525</v>
       </c>
-      <c r="L268" s="3">
+      <c r="L268">
         <v>0.67</v>
       </c>
     </row>
@@ -41997,7 +42156,7 @@
       <c r="K269" t="s">
         <v>526</v>
       </c>
-      <c r="L269" s="3">
+      <c r="L269">
         <v>0.67</v>
       </c>
     </row>
@@ -42035,7 +42194,7 @@
       <c r="K270" t="s">
         <v>527</v>
       </c>
-      <c r="L270" s="3">
+      <c r="L270">
         <v>0.67</v>
       </c>
     </row>
@@ -42073,7 +42232,7 @@
       <c r="K271" t="s">
         <v>528</v>
       </c>
-      <c r="L271" s="3">
+      <c r="L271">
         <v>0.67</v>
       </c>
     </row>
@@ -42111,7 +42270,7 @@
       <c r="K272" t="s">
         <v>529</v>
       </c>
-      <c r="L272" s="3">
+      <c r="L272">
         <v>0.67</v>
       </c>
     </row>
@@ -42149,7 +42308,7 @@
       <c r="K273" t="s">
         <v>530</v>
       </c>
-      <c r="L273" s="3">
+      <c r="L273">
         <v>0.67</v>
       </c>
     </row>
@@ -42187,7 +42346,7 @@
       <c r="K274" t="s">
         <v>531</v>
       </c>
-      <c r="L274" s="3">
+      <c r="L274">
         <v>0.67</v>
       </c>
     </row>
@@ -42225,7 +42384,7 @@
       <c r="K275" t="s">
         <v>532</v>
       </c>
-      <c r="L275" s="3">
+      <c r="L275">
         <v>0.67</v>
       </c>
     </row>
@@ -42263,7 +42422,7 @@
       <c r="K276" t="s">
         <v>533</v>
       </c>
-      <c r="L276" s="3">
+      <c r="L276">
         <v>0.67</v>
       </c>
     </row>
@@ -42301,7 +42460,7 @@
       <c r="K277" t="s">
         <v>534</v>
       </c>
-      <c r="L277" s="3">
+      <c r="L277">
         <v>0.67</v>
       </c>
     </row>
@@ -42339,7 +42498,7 @@
       <c r="K278" t="s">
         <v>535</v>
       </c>
-      <c r="L278" s="3">
+      <c r="L278">
         <v>0.67</v>
       </c>
     </row>
@@ -42377,7 +42536,7 @@
       <c r="K279" t="s">
         <v>536</v>
       </c>
-      <c r="L279" s="3">
+      <c r="L279">
         <v>0.67</v>
       </c>
     </row>
@@ -42415,7 +42574,7 @@
       <c r="K280" t="s">
         <v>537</v>
       </c>
-      <c r="L280" s="3">
+      <c r="L280">
         <v>0.9</v>
       </c>
     </row>
@@ -42453,7 +42612,7 @@
       <c r="K281" t="s">
         <v>538</v>
       </c>
-      <c r="L281" s="3">
+      <c r="L281">
         <v>0.9</v>
       </c>
     </row>
@@ -42491,7 +42650,7 @@
       <c r="K282" t="s">
         <v>539</v>
       </c>
-      <c r="L282" s="3">
+      <c r="L282">
         <v>0.9</v>
       </c>
     </row>
@@ -42529,7 +42688,7 @@
       <c r="K283" t="s">
         <v>540</v>
       </c>
-      <c r="L283" s="3">
+      <c r="L283">
         <v>0.9</v>
       </c>
     </row>
@@ -42567,7 +42726,7 @@
       <c r="K284" t="s">
         <v>541</v>
       </c>
-      <c r="L284" s="3">
+      <c r="L284">
         <v>0.9</v>
       </c>
     </row>
@@ -42605,7 +42764,7 @@
       <c r="K285" t="s">
         <v>404</v>
       </c>
-      <c r="L285" s="3">
+      <c r="L285">
         <v>0.9</v>
       </c>
     </row>
@@ -42643,7 +42802,7 @@
       <c r="K286" t="s">
         <v>542</v>
       </c>
-      <c r="L286" s="3">
+      <c r="L286">
         <v>0.9</v>
       </c>
     </row>
@@ -42681,7 +42840,7 @@
       <c r="K287" t="s">
         <v>543</v>
       </c>
-      <c r="L287" s="3">
+      <c r="L287">
         <v>0.9</v>
       </c>
     </row>
@@ -42719,7 +42878,7 @@
       <c r="K288" t="s">
         <v>642</v>
       </c>
-      <c r="L288" s="3">
+      <c r="L288">
         <v>0.9</v>
       </c>
     </row>
@@ -42757,7 +42916,7 @@
       <c r="K289" t="s">
         <v>322</v>
       </c>
-      <c r="L289" s="3">
+      <c r="L289">
         <v>0.9</v>
       </c>
     </row>
@@ -42795,7 +42954,7 @@
       <c r="K290" t="s">
         <v>353</v>
       </c>
-      <c r="L290" s="3">
+      <c r="L290">
         <v>0.9</v>
       </c>
     </row>
@@ -42833,7 +42992,7 @@
       <c r="K291" t="s">
         <v>544</v>
       </c>
-      <c r="L291" s="3">
+      <c r="L291">
         <v>0.9</v>
       </c>
     </row>
@@ -42871,7 +43030,7 @@
       <c r="K292" t="s">
         <v>545</v>
       </c>
-      <c r="L292" s="3">
+      <c r="L292">
         <v>0.9</v>
       </c>
     </row>
@@ -42909,7 +43068,7 @@
       <c r="K293" t="s">
         <v>497</v>
       </c>
-      <c r="L293" s="3">
+      <c r="L293">
         <v>0.9</v>
       </c>
     </row>
@@ -42947,7 +43106,7 @@
       <c r="K294" t="s">
         <v>508</v>
       </c>
-      <c r="L294" s="3">
+      <c r="L294">
         <v>0.9</v>
       </c>
     </row>
@@ -42985,7 +43144,7 @@
       <c r="K295" t="s">
         <v>546</v>
       </c>
-      <c r="L295" s="3">
+      <c r="L295">
         <v>0.9</v>
       </c>
     </row>
@@ -43023,7 +43182,7 @@
       <c r="K296" t="s">
         <v>547</v>
       </c>
-      <c r="L296" s="3">
+      <c r="L296">
         <v>0.9</v>
       </c>
     </row>
@@ -43061,7 +43220,7 @@
       <c r="K297" t="s">
         <v>623</v>
       </c>
-      <c r="L297" s="3">
+      <c r="L297">
         <v>0.9</v>
       </c>
     </row>
@@ -43099,7 +43258,7 @@
       <c r="K298" t="s">
         <v>548</v>
       </c>
-      <c r="L298" s="3">
+      <c r="L298">
         <v>0.9</v>
       </c>
     </row>
@@ -43137,7 +43296,7 @@
       <c r="K299" t="s">
         <v>333</v>
       </c>
-      <c r="L299" s="3">
+      <c r="L299">
         <v>0.9</v>
       </c>
     </row>
@@ -43175,7 +43334,7 @@
       <c r="K300" t="s">
         <v>510</v>
       </c>
-      <c r="L300" s="3">
+      <c r="L300">
         <v>0.9</v>
       </c>
     </row>
@@ -43213,7 +43372,7 @@
       <c r="K301" t="s">
         <v>549</v>
       </c>
-      <c r="L301" s="3">
+      <c r="L301">
         <v>0.9</v>
       </c>
     </row>
@@ -43251,7 +43410,7 @@
       <c r="K302" t="s">
         <v>550</v>
       </c>
-      <c r="L302" s="3">
+      <c r="L302">
         <v>0.9</v>
       </c>
     </row>
@@ -43289,7 +43448,7 @@
       <c r="K303" t="s">
         <v>551</v>
       </c>
-      <c r="L303" s="3">
+      <c r="L303">
         <v>0.9</v>
       </c>
     </row>
@@ -43327,7 +43486,7 @@
       <c r="K304" t="s">
         <v>552</v>
       </c>
-      <c r="L304" s="3">
+      <c r="L304">
         <v>0.9</v>
       </c>
     </row>
@@ -43365,7 +43524,7 @@
       <c r="K305" t="s">
         <v>553</v>
       </c>
-      <c r="L305" s="3">
+      <c r="L305">
         <v>0.9</v>
       </c>
     </row>
@@ -43403,7 +43562,7 @@
       <c r="K306" t="s">
         <v>554</v>
       </c>
-      <c r="L306" s="3">
+      <c r="L306">
         <v>0.9</v>
       </c>
     </row>
@@ -43441,7 +43600,7 @@
       <c r="K307" t="s">
         <v>555</v>
       </c>
-      <c r="L307" s="3">
+      <c r="L307">
         <v>0.9</v>
       </c>
     </row>
@@ -43479,7 +43638,7 @@
       <c r="K308" t="s">
         <v>556</v>
       </c>
-      <c r="L308" s="3">
+      <c r="L308">
         <v>0.9</v>
       </c>
     </row>
@@ -43517,7 +43676,7 @@
       <c r="K309" t="s">
         <v>456</v>
       </c>
-      <c r="L309" s="3">
+      <c r="L309">
         <v>1.25</v>
       </c>
     </row>
@@ -43555,7 +43714,7 @@
       <c r="K310" t="s">
         <v>557</v>
       </c>
-      <c r="L310" s="3">
+      <c r="L310">
         <v>1.25</v>
       </c>
     </row>
@@ -43593,7 +43752,7 @@
       <c r="K311" t="s">
         <v>465</v>
       </c>
-      <c r="L311" s="3">
+      <c r="L311">
         <v>1.25</v>
       </c>
     </row>
@@ -43631,7 +43790,7 @@
       <c r="K312" t="s">
         <v>558</v>
       </c>
-      <c r="L312" s="3">
+      <c r="L312">
         <v>1.25</v>
       </c>
     </row>
@@ -43669,7 +43828,7 @@
       <c r="K313" t="s">
         <v>554</v>
       </c>
-      <c r="L313" s="3">
+      <c r="L313">
         <v>1.25</v>
       </c>
     </row>
@@ -43707,7 +43866,7 @@
       <c r="K314" t="s">
         <v>559</v>
       </c>
-      <c r="L314" s="3">
+      <c r="L314">
         <v>1.25</v>
       </c>
     </row>
@@ -43745,7 +43904,7 @@
       <c r="K315" t="s">
         <v>517</v>
       </c>
-      <c r="L315" s="3">
+      <c r="L315">
         <v>1.25</v>
       </c>
     </row>
@@ -43783,7 +43942,7 @@
       <c r="K316" t="s">
         <v>520</v>
       </c>
-      <c r="L316" s="3">
+      <c r="L316">
         <v>1.25</v>
       </c>
     </row>
@@ -43821,7 +43980,7 @@
       <c r="K317" t="s">
         <v>560</v>
       </c>
-      <c r="L317" s="3">
+      <c r="L317">
         <v>1.25</v>
       </c>
     </row>
@@ -43859,7 +44018,7 @@
       <c r="K318" t="s">
         <v>561</v>
       </c>
-      <c r="L318" s="3">
+      <c r="L318">
         <v>1.25</v>
       </c>
     </row>
@@ -43897,7 +44056,7 @@
       <c r="K319" t="s">
         <v>562</v>
       </c>
-      <c r="L319" s="3">
+      <c r="L319">
         <v>1.25</v>
       </c>
     </row>
@@ -43935,7 +44094,7 @@
       <c r="K320" t="s">
         <v>563</v>
       </c>
-      <c r="L320" s="3">
+      <c r="L320">
         <v>1.25</v>
       </c>
     </row>
@@ -43973,7 +44132,7 @@
       <c r="K321" t="s">
         <v>454</v>
       </c>
-      <c r="L321" s="3">
+      <c r="L321">
         <v>1.25</v>
       </c>
     </row>
@@ -44011,7 +44170,7 @@
       <c r="K322" t="s">
         <v>564</v>
       </c>
-      <c r="L322" s="3">
+      <c r="L322">
         <v>1.25</v>
       </c>
     </row>
@@ -44049,7 +44208,7 @@
       <c r="K323" t="s">
         <v>441</v>
       </c>
-      <c r="L323" s="3">
+      <c r="L323">
         <v>1.25</v>
       </c>
     </row>
@@ -44087,7 +44246,7 @@
       <c r="K324" t="s">
         <v>551</v>
       </c>
-      <c r="L324" s="3">
+      <c r="L324">
         <v>1.25</v>
       </c>
     </row>
@@ -44125,7 +44284,7 @@
       <c r="K325" t="s">
         <v>565</v>
       </c>
-      <c r="L325" s="3">
+      <c r="L325">
         <v>1.25</v>
       </c>
     </row>
@@ -44163,7 +44322,7 @@
       <c r="K326" t="s">
         <v>566</v>
       </c>
-      <c r="L326" s="3">
+      <c r="L326">
         <v>1.25</v>
       </c>
     </row>
@@ -44201,7 +44360,7 @@
       <c r="K327" t="s">
         <v>567</v>
       </c>
-      <c r="L327" s="3">
+      <c r="L327">
         <v>1.25</v>
       </c>
     </row>
@@ -44239,7 +44398,7 @@
       <c r="K328" t="s">
         <v>568</v>
       </c>
-      <c r="L328" s="3">
+      <c r="L328">
         <v>1.25</v>
       </c>
     </row>
@@ -44277,7 +44436,7 @@
       <c r="K329" t="s">
         <v>569</v>
       </c>
-      <c r="L329" s="3">
+      <c r="L329">
         <v>1.25</v>
       </c>
     </row>
@@ -44315,7 +44474,7 @@
       <c r="K330" t="s">
         <v>502</v>
       </c>
-      <c r="L330" s="3">
+      <c r="L330">
         <v>1.25</v>
       </c>
     </row>
@@ -44353,7 +44512,7 @@
       <c r="K331" t="s">
         <v>456</v>
       </c>
-      <c r="L331" s="3">
+      <c r="L331">
         <v>1.25</v>
       </c>
     </row>
@@ -44391,7 +44550,7 @@
       <c r="K332" t="s">
         <v>570</v>
       </c>
-      <c r="L332" s="3">
+      <c r="L332">
         <v>1.25</v>
       </c>
     </row>
@@ -44429,7 +44588,7 @@
       <c r="K333" t="s">
         <v>571</v>
       </c>
-      <c r="L333" s="3">
+      <c r="L333">
         <v>1.25</v>
       </c>
     </row>
@@ -44467,7 +44626,7 @@
       <c r="K334" t="s">
         <v>573</v>
       </c>
-      <c r="L334" s="3">
+      <c r="L334">
         <v>1.25</v>
       </c>
     </row>
@@ -44505,7 +44664,7 @@
       <c r="K335" t="s">
         <v>574</v>
       </c>
-      <c r="L335" s="3">
+      <c r="L335">
         <v>1.25</v>
       </c>
     </row>
@@ -44543,7 +44702,7 @@
       <c r="K336" t="s">
         <v>575</v>
       </c>
-      <c r="L336" s="3">
+      <c r="L336">
         <v>1.38</v>
       </c>
     </row>
@@ -44581,7 +44740,7 @@
       <c r="K337" t="s">
         <v>490</v>
       </c>
-      <c r="L337" s="3">
+      <c r="L337">
         <v>1.38</v>
       </c>
     </row>
@@ -44619,7 +44778,7 @@
       <c r="K338" t="s">
         <v>576</v>
       </c>
-      <c r="L338" s="3">
+      <c r="L338">
         <v>1.38</v>
       </c>
     </row>
@@ -44657,7 +44816,7 @@
       <c r="K339" t="s">
         <v>554</v>
       </c>
-      <c r="L339" s="3">
+      <c r="L339">
         <v>1.38</v>
       </c>
     </row>
@@ -44695,7 +44854,7 @@
       <c r="K340" t="s">
         <v>575</v>
       </c>
-      <c r="L340" s="3">
+      <c r="L340">
         <v>1.38</v>
       </c>
     </row>
@@ -44733,7 +44892,7 @@
       <c r="K341" t="s">
         <v>577</v>
       </c>
-      <c r="L341" s="3">
+      <c r="L341">
         <v>1.38</v>
       </c>
     </row>
@@ -44771,7 +44930,7 @@
       <c r="K342" t="s">
         <v>578</v>
       </c>
-      <c r="L342" s="3">
+      <c r="L342">
         <v>1.38</v>
       </c>
     </row>
@@ -44809,7 +44968,7 @@
       <c r="K343" t="s">
         <v>579</v>
       </c>
-      <c r="L343" s="3">
+      <c r="L343">
         <v>1.38</v>
       </c>
     </row>
@@ -44847,7 +45006,7 @@
       <c r="K344" t="s">
         <v>622</v>
       </c>
-      <c r="L344" s="3">
+      <c r="L344">
         <v>1.38</v>
       </c>
     </row>
@@ -44885,7 +45044,7 @@
       <c r="K345" t="s">
         <v>580</v>
       </c>
-      <c r="L345" s="3">
+      <c r="L345">
         <v>1.38</v>
       </c>
     </row>
@@ -44923,7 +45082,7 @@
       <c r="K346" t="s">
         <v>581</v>
       </c>
-      <c r="L346" s="3">
+      <c r="L346">
         <v>1.38</v>
       </c>
     </row>
@@ -44961,7 +45120,7 @@
       <c r="K347" t="s">
         <v>582</v>
       </c>
-      <c r="L347" s="3">
+      <c r="L347">
         <v>1.38</v>
       </c>
     </row>
@@ -44999,7 +45158,7 @@
       <c r="K348" t="s">
         <v>583</v>
       </c>
-      <c r="L348" s="3">
+      <c r="L348">
         <v>1.38</v>
       </c>
     </row>
@@ -45037,7 +45196,7 @@
       <c r="K349" t="s">
         <v>584</v>
       </c>
-      <c r="L349" s="3">
+      <c r="L349">
         <v>1.38</v>
       </c>
     </row>
@@ -45075,7 +45234,7 @@
       <c r="K350" t="s">
         <v>585</v>
       </c>
-      <c r="L350" s="3">
+      <c r="L350">
         <v>1.38</v>
       </c>
     </row>
@@ -45113,7 +45272,7 @@
       <c r="K351" t="s">
         <v>586</v>
       </c>
-      <c r="L351" s="3">
+      <c r="L351">
         <v>1.38</v>
       </c>
     </row>
@@ -45151,7 +45310,7 @@
       <c r="K352" t="s">
         <v>587</v>
       </c>
-      <c r="L352" s="3">
+      <c r="L352">
         <v>1.38</v>
       </c>
     </row>
@@ -45189,7 +45348,7 @@
       <c r="K353" t="s">
         <v>454</v>
       </c>
-      <c r="L353" s="3">
+      <c r="L353">
         <v>1.38</v>
       </c>
     </row>
@@ -45227,7 +45386,7 @@
       <c r="K354" t="s">
         <v>588</v>
       </c>
-      <c r="L354" s="3">
+      <c r="L354">
         <v>1.38</v>
       </c>
     </row>
@@ -45265,7 +45424,7 @@
       <c r="K355" t="s">
         <v>562</v>
       </c>
-      <c r="L355" s="3">
+      <c r="L355">
         <v>1.38</v>
       </c>
     </row>
@@ -45303,7 +45462,7 @@
       <c r="K356" t="s">
         <v>589</v>
       </c>
-      <c r="L356" s="3">
+      <c r="L356">
         <v>1.38</v>
       </c>
     </row>
@@ -45341,7 +45500,7 @@
       <c r="K357" t="s">
         <v>590</v>
       </c>
-      <c r="L357" s="3">
+      <c r="L357">
         <v>1.38</v>
       </c>
     </row>
@@ -45379,7 +45538,7 @@
       <c r="K358" t="s">
         <v>591</v>
       </c>
-      <c r="L358" s="3">
+      <c r="L358">
         <v>1.38</v>
       </c>
     </row>
@@ -45417,7 +45576,7 @@
       <c r="K359" t="s">
         <v>592</v>
       </c>
-      <c r="L359" s="3">
+      <c r="L359">
         <v>1.38</v>
       </c>
     </row>
@@ -45455,7 +45614,7 @@
       <c r="K360" t="s">
         <v>449</v>
       </c>
-      <c r="L360" s="3">
+      <c r="L360">
         <v>1.38</v>
       </c>
     </row>
@@ -45493,7 +45652,7 @@
       <c r="K361" t="s">
         <v>593</v>
       </c>
-      <c r="L361" s="3">
+      <c r="L361">
         <v>1.38</v>
       </c>
     </row>
@@ -45531,7 +45690,7 @@
       <c r="K362" t="s">
         <v>594</v>
       </c>
-      <c r="L362" s="3">
+      <c r="L362">
         <v>1.38</v>
       </c>
     </row>
@@ -45569,7 +45728,7 @@
       <c r="K363" t="s">
         <v>595</v>
       </c>
-      <c r="L363" s="3">
+      <c r="L363">
         <v>1.38</v>
       </c>
     </row>
@@ -45607,7 +45766,7 @@
       <c r="K364" t="s">
         <v>596</v>
       </c>
-      <c r="L364" s="3">
+      <c r="L364">
         <v>1.3</v>
       </c>
     </row>
@@ -45645,7 +45804,7 @@
       <c r="K365" t="s">
         <v>597</v>
       </c>
-      <c r="L365" s="3">
+      <c r="L365">
         <v>1.3</v>
       </c>
     </row>
@@ -45683,7 +45842,7 @@
       <c r="K366" t="s">
         <v>598</v>
       </c>
-      <c r="L366" s="3">
+      <c r="L366">
         <v>1.3</v>
       </c>
     </row>
@@ -45721,7 +45880,7 @@
       <c r="K367" t="s">
         <v>599</v>
       </c>
-      <c r="L367" s="3">
+      <c r="L367">
         <v>1.3</v>
       </c>
     </row>
@@ -45759,7 +45918,7 @@
       <c r="K368" t="s">
         <v>600</v>
       </c>
-      <c r="L368" s="3">
+      <c r="L368">
         <v>1.3</v>
       </c>
     </row>
@@ -45797,7 +45956,7 @@
       <c r="K369" t="s">
         <v>556</v>
       </c>
-      <c r="L369" s="3">
+      <c r="L369">
         <v>1.3</v>
       </c>
     </row>
@@ -45835,7 +45994,7 @@
       <c r="K370" t="s">
         <v>601</v>
       </c>
-      <c r="L370" s="3">
+      <c r="L370">
         <v>1.3</v>
       </c>
     </row>
@@ -45873,7 +46032,7 @@
       <c r="K371" t="s">
         <v>602</v>
       </c>
-      <c r="L371" s="3">
+      <c r="L371">
         <v>1.3</v>
       </c>
     </row>
@@ -45911,7 +46070,7 @@
       <c r="K372" t="s">
         <v>603</v>
       </c>
-      <c r="L372" s="3">
+      <c r="L372">
         <v>1.3</v>
       </c>
     </row>
@@ -45949,7 +46108,7 @@
       <c r="K373" t="s">
         <v>604</v>
       </c>
-      <c r="L373" s="3">
+      <c r="L373">
         <v>1.3</v>
       </c>
     </row>
@@ -45987,7 +46146,7 @@
       <c r="K374" t="s">
         <v>605</v>
       </c>
-      <c r="L374" s="3">
+      <c r="L374">
         <v>1.3</v>
       </c>
     </row>
@@ -46025,7 +46184,7 @@
       <c r="K375" t="s">
         <v>606</v>
       </c>
-      <c r="L375" s="3">
+      <c r="L375">
         <v>1.3</v>
       </c>
     </row>
@@ -46063,7 +46222,7 @@
       <c r="K376" t="s">
         <v>608</v>
       </c>
-      <c r="L376" s="3">
+      <c r="L376">
         <v>1.3</v>
       </c>
     </row>
@@ -46101,7 +46260,7 @@
       <c r="K377" t="s">
         <v>574</v>
       </c>
-      <c r="L377" s="3">
+      <c r="L377">
         <v>1.3</v>
       </c>
     </row>
@@ -46139,7 +46298,7 @@
       <c r="K378" t="s">
         <v>454</v>
       </c>
-      <c r="L378" s="3">
+      <c r="L378">
         <v>1.3</v>
       </c>
     </row>
@@ -46177,7 +46336,7 @@
       <c r="K379" t="s">
         <v>444</v>
       </c>
-      <c r="L379" s="3">
+      <c r="L379">
         <v>1.3</v>
       </c>
     </row>
@@ -46215,7 +46374,7 @@
       <c r="K380" t="s">
         <v>609</v>
       </c>
-      <c r="L380" s="3">
+      <c r="L380">
         <v>1.3</v>
       </c>
     </row>
@@ -46253,7 +46412,7 @@
       <c r="K381" t="s">
         <v>610</v>
       </c>
-      <c r="L381" s="3">
+      <c r="L381">
         <v>1.3</v>
       </c>
     </row>
@@ -46291,7 +46450,7 @@
       <c r="K382" t="s">
         <v>611</v>
       </c>
-      <c r="L382" s="3">
+      <c r="L382">
         <v>1.3</v>
       </c>
     </row>
@@ -46329,7 +46488,7 @@
       <c r="K383" t="s">
         <v>612</v>
       </c>
-      <c r="L383" s="3">
+      <c r="L383">
         <v>1.3</v>
       </c>
     </row>
@@ -46367,7 +46526,7 @@
       <c r="K384" t="s">
         <v>613</v>
       </c>
-      <c r="L384" s="3">
+      <c r="L384">
         <v>1.3</v>
       </c>
     </row>
@@ -46405,7 +46564,7 @@
       <c r="K385" t="s">
         <v>614</v>
       </c>
-      <c r="L385" s="3">
+      <c r="L385">
         <v>1.3</v>
       </c>
     </row>
@@ -46443,7 +46602,7 @@
       <c r="K386" t="s">
         <v>615</v>
       </c>
-      <c r="L386" s="3">
+      <c r="L386">
         <v>1.3</v>
       </c>
     </row>
@@ -46481,7 +46640,7 @@
       <c r="K387" t="s">
         <v>643</v>
       </c>
-      <c r="L387" s="3">
+      <c r="L387">
         <v>1.3</v>
       </c>
     </row>
@@ -46519,7 +46678,7 @@
       <c r="K388" t="s">
         <v>616</v>
       </c>
-      <c r="L388" s="3">
+      <c r="L388">
         <v>1.3</v>
       </c>
     </row>
@@ -46557,7 +46716,7 @@
       <c r="K389" t="s">
         <v>617</v>
       </c>
-      <c r="L389" s="3">
+      <c r="L389">
         <v>1.3</v>
       </c>
     </row>
@@ -46595,7 +46754,7 @@
       <c r="K390" t="s">
         <v>618</v>
       </c>
-      <c r="L390" s="3">
+      <c r="L390">
         <v>1.3</v>
       </c>
     </row>
@@ -46633,7 +46792,7 @@
       <c r="K391" t="s">
         <v>619</v>
       </c>
-      <c r="L391" s="3">
+      <c r="L391">
         <v>1.3</v>
       </c>
     </row>
@@ -46671,7 +46830,7 @@
       <c r="K392" t="s">
         <v>620</v>
       </c>
-      <c r="L392" s="3">
+      <c r="L392">
         <v>1.3</v>
       </c>
     </row>
@@ -46709,7 +46868,7 @@
       <c r="K393" t="s">
         <v>621</v>
       </c>
-      <c r="L393" s="3">
+      <c r="L393">
         <v>1.3</v>
       </c>
     </row>
@@ -46726,7 +46885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692FC03A-49D7-4E77-88FF-CBC235FE6192}">
   <dimension ref="B2:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
@@ -47497,7 +47656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13256ECE-337C-4A12-82CE-E54ADF52F4BF}">
   <dimension ref="C2:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -47562,7 +47721,7 @@
       <c r="C5" s="2">
         <v>70</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>12.948275862068966</v>
       </c>
     </row>
@@ -47570,7 +47729,7 @@
       <c r="C6" s="2">
         <v>71</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>15</v>
       </c>
     </row>
@@ -47578,7 +47737,7 @@
       <c r="C7" s="2">
         <v>72</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>15.125</v>
       </c>
     </row>
@@ -47586,7 +47745,7 @@
       <c r="C8" s="2">
         <v>73</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>14.3125</v>
       </c>
     </row>
@@ -47594,7 +47753,7 @@
       <c r="C9" s="2">
         <v>74</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>16.173076923076923</v>
       </c>
     </row>
@@ -47602,7 +47761,7 @@
       <c r="C10" s="2">
         <v>75</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>16.05</v>
       </c>
     </row>
@@ -47610,7 +47769,7 @@
       <c r="C11" s="2">
         <v>76</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>15.941176470588232</v>
       </c>
     </row>
@@ -47618,7 +47777,7 @@
       <c r="C12" s="2">
         <v>77</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>15.435714285714285</v>
       </c>
     </row>
@@ -47626,7 +47785,7 @@
       <c r="C13" s="2">
         <v>78</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>15.805555555555552</v>
       </c>
     </row>
@@ -47634,7 +47793,7 @@
       <c r="C14" s="2">
         <v>79</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>15.813793103448274</v>
       </c>
     </row>
@@ -47642,7 +47801,7 @@
       <c r="C15" s="2">
         <v>80</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>17.018518518518519</v>
       </c>
     </row>
@@ -47650,7 +47809,7 @@
       <c r="C16" s="2">
         <v>81</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>16.325000000000006</v>
       </c>
     </row>
@@ -47658,7 +47817,7 @@
       <c r="C17" s="2">
         <v>82</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>16.510000000000002</v>
       </c>
     </row>
@@ -47666,7 +47825,7 @@
       <c r="C18" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>15.541326530612228</v>
       </c>
     </row>
@@ -47687,7 +47846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3A2CED-8F51-4A20-93F1-11C3D38E4EA9}">
   <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AU70" sqref="AU70"/>
     </sheetView>
   </sheetViews>
@@ -47728,7 +47887,7 @@
       <c r="B5" s="2">
         <v>70</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>29</v>
       </c>
     </row>
@@ -47736,7 +47895,7 @@
       <c r="B6" s="2">
         <v>71</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>27</v>
       </c>
     </row>
@@ -47744,7 +47903,7 @@
       <c r="B7" s="2">
         <v>72</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>28</v>
       </c>
     </row>
@@ -47752,7 +47911,7 @@
       <c r="B8" s="2">
         <v>73</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>40</v>
       </c>
     </row>
@@ -47760,7 +47919,7 @@
       <c r="B9" s="2">
         <v>74</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>26</v>
       </c>
     </row>
@@ -47768,7 +47927,7 @@
       <c r="B10" s="2">
         <v>75</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>30</v>
       </c>
     </row>
@@ -47776,7 +47935,7 @@
       <c r="B11" s="2">
         <v>76</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>34</v>
       </c>
     </row>
@@ -47784,7 +47943,7 @@
       <c r="B12" s="2">
         <v>77</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>28</v>
       </c>
     </row>
@@ -47792,7 +47951,7 @@
       <c r="B13" s="2">
         <v>78</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>36</v>
       </c>
     </row>
@@ -47800,7 +47959,7 @@
       <c r="B14" s="2">
         <v>79</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>29</v>
       </c>
     </row>
@@ -47808,7 +47967,7 @@
       <c r="B15" s="2">
         <v>80</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>27</v>
       </c>
     </row>
@@ -47816,7 +47975,7 @@
       <c r="B16" s="2">
         <v>81</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>28</v>
       </c>
     </row>
@@ -47824,7 +47983,7 @@
       <c r="B17" s="2">
         <v>82</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>30</v>
       </c>
     </row>
@@ -47832,7 +47991,7 @@
       <c r="B18" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>392</v>
       </c>
     </row>
